--- a/kayseri-data-processed.xlsx
+++ b/kayseri-data-processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaanu\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E77E2FE-F8C7-4C3E-BE9C-25F8DEB3CEB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C877AC4-0988-407F-BC13-BF2C89D80C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
   <si>
     <t>Tarih</t>
   </si>
@@ -72,6 +72,768 @@
   </si>
   <si>
     <t>Tahmini fazla vefat sayisi</t>
+  </si>
+  <si>
+    <t>29.12</t>
+  </si>
+  <si>
+    <t>30.12</t>
+  </si>
+  <si>
+    <t>31.12</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>5.01</t>
+  </si>
+  <si>
+    <t>6.01</t>
+  </si>
+  <si>
+    <t>7.01</t>
+  </si>
+  <si>
+    <t>8.01</t>
+  </si>
+  <si>
+    <t>9.01</t>
+  </si>
+  <si>
+    <t>10.01</t>
+  </si>
+  <si>
+    <t>11.01</t>
+  </si>
+  <si>
+    <t>12.01</t>
+  </si>
+  <si>
+    <t>13.01</t>
+  </si>
+  <si>
+    <t>14.01</t>
+  </si>
+  <si>
+    <t>15.01</t>
+  </si>
+  <si>
+    <t>16.01</t>
+  </si>
+  <si>
+    <t>17.01</t>
+  </si>
+  <si>
+    <t>18.01</t>
+  </si>
+  <si>
+    <t>19.01</t>
+  </si>
+  <si>
+    <t>20.01</t>
+  </si>
+  <si>
+    <t>21.01</t>
+  </si>
+  <si>
+    <t>22.01</t>
+  </si>
+  <si>
+    <t>23.01</t>
+  </si>
+  <si>
+    <t>24.01</t>
+  </si>
+  <si>
+    <t>25.01</t>
+  </si>
+  <si>
+    <t>26.01</t>
+  </si>
+  <si>
+    <t>27.01</t>
+  </si>
+  <si>
+    <t>28.01</t>
+  </si>
+  <si>
+    <t>29.01</t>
+  </si>
+  <si>
+    <t>30.01</t>
+  </si>
+  <si>
+    <t>31.01</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>4.02</t>
+  </si>
+  <si>
+    <t>5.02</t>
+  </si>
+  <si>
+    <t>6.02</t>
+  </si>
+  <si>
+    <t>7.02</t>
+  </si>
+  <si>
+    <t>8.02</t>
+  </si>
+  <si>
+    <t>9.02</t>
+  </si>
+  <si>
+    <t>10.02</t>
+  </si>
+  <si>
+    <t>11.02</t>
+  </si>
+  <si>
+    <t>12.02</t>
+  </si>
+  <si>
+    <t>13.02</t>
+  </si>
+  <si>
+    <t>14.02</t>
+  </si>
+  <si>
+    <t>15.02</t>
+  </si>
+  <si>
+    <t>16.02</t>
+  </si>
+  <si>
+    <t>17.02</t>
+  </si>
+  <si>
+    <t>18.02</t>
+  </si>
+  <si>
+    <t>19.02</t>
+  </si>
+  <si>
+    <t>20.02</t>
+  </si>
+  <si>
+    <t>21.02</t>
+  </si>
+  <si>
+    <t>22.02</t>
+  </si>
+  <si>
+    <t>23.02</t>
+  </si>
+  <si>
+    <t>24.02</t>
+  </si>
+  <si>
+    <t>25.02</t>
+  </si>
+  <si>
+    <t>26.02</t>
+  </si>
+  <si>
+    <t>27.02</t>
+  </si>
+  <si>
+    <t>28.02</t>
+  </si>
+  <si>
+    <t>29.02</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>5.03</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>7.03</t>
+  </si>
+  <si>
+    <t>8.03</t>
+  </si>
+  <si>
+    <t>9.03</t>
+  </si>
+  <si>
+    <t>10.03</t>
+  </si>
+  <si>
+    <t>11.03</t>
+  </si>
+  <si>
+    <t>12.03</t>
+  </si>
+  <si>
+    <t>13.03</t>
+  </si>
+  <si>
+    <t>14.03</t>
+  </si>
+  <si>
+    <t>15.03</t>
+  </si>
+  <si>
+    <t>16.03</t>
+  </si>
+  <si>
+    <t>17.03</t>
+  </si>
+  <si>
+    <t>18.03</t>
+  </si>
+  <si>
+    <t>19.03</t>
+  </si>
+  <si>
+    <t>20.03</t>
+  </si>
+  <si>
+    <t>21.03</t>
+  </si>
+  <si>
+    <t>22.03</t>
+  </si>
+  <si>
+    <t>23.03</t>
+  </si>
+  <si>
+    <t>24.03</t>
+  </si>
+  <si>
+    <t>25.03</t>
+  </si>
+  <si>
+    <t>26.03</t>
+  </si>
+  <si>
+    <t>27.03</t>
+  </si>
+  <si>
+    <t>28.03</t>
+  </si>
+  <si>
+    <t>29.03</t>
+  </si>
+  <si>
+    <t>30.03</t>
+  </si>
+  <si>
+    <t>31.03</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>5.04</t>
+  </si>
+  <si>
+    <t>6.04</t>
+  </si>
+  <si>
+    <t>7.04</t>
+  </si>
+  <si>
+    <t>8.04</t>
+  </si>
+  <si>
+    <t>9.04</t>
+  </si>
+  <si>
+    <t>10.04</t>
+  </si>
+  <si>
+    <t>11.04</t>
+  </si>
+  <si>
+    <t>12.04</t>
+  </si>
+  <si>
+    <t>13.04</t>
+  </si>
+  <si>
+    <t>14.04</t>
+  </si>
+  <si>
+    <t>15.04</t>
+  </si>
+  <si>
+    <t>16.04</t>
+  </si>
+  <si>
+    <t>17.04</t>
+  </si>
+  <si>
+    <t>18.04</t>
+  </si>
+  <si>
+    <t>19.04</t>
+  </si>
+  <si>
+    <t>20.04</t>
+  </si>
+  <si>
+    <t>21.04</t>
+  </si>
+  <si>
+    <t>22.04</t>
+  </si>
+  <si>
+    <t>23.04</t>
+  </si>
+  <si>
+    <t>24.04</t>
+  </si>
+  <si>
+    <t>25.04</t>
+  </si>
+  <si>
+    <t>26.04</t>
+  </si>
+  <si>
+    <t>27.04</t>
+  </si>
+  <si>
+    <t>28.04</t>
+  </si>
+  <si>
+    <t>29.04</t>
+  </si>
+  <si>
+    <t>30.04</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>7.05</t>
+  </si>
+  <si>
+    <t>8.05</t>
+  </si>
+  <si>
+    <t>9.05</t>
+  </si>
+  <si>
+    <t>10.05</t>
+  </si>
+  <si>
+    <t>11.05</t>
+  </si>
+  <si>
+    <t>12.05</t>
+  </si>
+  <si>
+    <t>13.05</t>
+  </si>
+  <si>
+    <t>14.05</t>
+  </si>
+  <si>
+    <t>15.05</t>
+  </si>
+  <si>
+    <t>16.05</t>
+  </si>
+  <si>
+    <t>17.05</t>
+  </si>
+  <si>
+    <t>18.05</t>
+  </si>
+  <si>
+    <t>19.05</t>
+  </si>
+  <si>
+    <t>20.05</t>
+  </si>
+  <si>
+    <t>21.05</t>
+  </si>
+  <si>
+    <t>22.05</t>
+  </si>
+  <si>
+    <t>23.05</t>
+  </si>
+  <si>
+    <t>24.05</t>
+  </si>
+  <si>
+    <t>25.05</t>
+  </si>
+  <si>
+    <t>26.05</t>
+  </si>
+  <si>
+    <t>27.05</t>
+  </si>
+  <si>
+    <t>28.05</t>
+  </si>
+  <si>
+    <t>29.05</t>
+  </si>
+  <si>
+    <t>30.05</t>
+  </si>
+  <si>
+    <t>31.05</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>3.06</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
+    <t>6.06</t>
+  </si>
+  <si>
+    <t>7.06</t>
+  </si>
+  <si>
+    <t>8.06</t>
+  </si>
+  <si>
+    <t>9.06</t>
+  </si>
+  <si>
+    <t>10.06</t>
+  </si>
+  <si>
+    <t>11.06</t>
+  </si>
+  <si>
+    <t>12.06</t>
+  </si>
+  <si>
+    <t>13.06</t>
+  </si>
+  <si>
+    <t>14.06</t>
+  </si>
+  <si>
+    <t>15.06</t>
+  </si>
+  <si>
+    <t>16.06</t>
+  </si>
+  <si>
+    <t>17.06</t>
+  </si>
+  <si>
+    <t>18.06</t>
+  </si>
+  <si>
+    <t>19.06</t>
+  </si>
+  <si>
+    <t>20.06</t>
+  </si>
+  <si>
+    <t>21.06</t>
+  </si>
+  <si>
+    <t>22.06</t>
+  </si>
+  <si>
+    <t>23.06</t>
+  </si>
+  <si>
+    <t>24.06</t>
+  </si>
+  <si>
+    <t>25.06</t>
+  </si>
+  <si>
+    <t>26.06</t>
+  </si>
+  <si>
+    <t>27.06</t>
+  </si>
+  <si>
+    <t>28.06</t>
+  </si>
+  <si>
+    <t>29.06</t>
+  </si>
+  <si>
+    <t>30.06</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>4.07</t>
+  </si>
+  <si>
+    <t>5.07</t>
+  </si>
+  <si>
+    <t>6.07</t>
+  </si>
+  <si>
+    <t>7.07</t>
+  </si>
+  <si>
+    <t>8.07</t>
+  </si>
+  <si>
+    <t>9.07</t>
+  </si>
+  <si>
+    <t>10.07</t>
+  </si>
+  <si>
+    <t>11.07</t>
+  </si>
+  <si>
+    <t>12.07</t>
+  </si>
+  <si>
+    <t>13.07</t>
+  </si>
+  <si>
+    <t>14.07</t>
+  </si>
+  <si>
+    <t>15.07</t>
+  </si>
+  <si>
+    <t>16.07</t>
+  </si>
+  <si>
+    <t>17.07</t>
+  </si>
+  <si>
+    <t>18.07</t>
+  </si>
+  <si>
+    <t>19.07</t>
+  </si>
+  <si>
+    <t>20.07</t>
+  </si>
+  <si>
+    <t>21.07</t>
+  </si>
+  <si>
+    <t>22.07</t>
+  </si>
+  <si>
+    <t>23.07</t>
+  </si>
+  <si>
+    <t>24.07</t>
+  </si>
+  <si>
+    <t>25.07</t>
+  </si>
+  <si>
+    <t>26.07</t>
+  </si>
+  <si>
+    <t>27.07</t>
+  </si>
+  <si>
+    <t>28.07</t>
+  </si>
+  <si>
+    <t>29.07</t>
+  </si>
+  <si>
+    <t>30.07</t>
+  </si>
+  <si>
+    <t>31.07</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>4.08</t>
+  </si>
+  <si>
+    <t>5.08</t>
+  </si>
+  <si>
+    <t>6.08</t>
+  </si>
+  <si>
+    <t>7.08</t>
+  </si>
+  <si>
+    <t>8.08</t>
+  </si>
+  <si>
+    <t>9.08</t>
+  </si>
+  <si>
+    <t>10.08</t>
+  </si>
+  <si>
+    <t>11.08</t>
+  </si>
+  <si>
+    <t>12.08</t>
+  </si>
+  <si>
+    <t>13.08</t>
+  </si>
+  <si>
+    <t>14.08</t>
+  </si>
+  <si>
+    <t>15.08</t>
+  </si>
+  <si>
+    <t>16.08</t>
+  </si>
+  <si>
+    <t>17.08</t>
+  </si>
+  <si>
+    <t>18.08</t>
+  </si>
+  <si>
+    <t>19.08</t>
+  </si>
+  <si>
+    <t>20.08</t>
+  </si>
+  <si>
+    <t>21.08</t>
+  </si>
+  <si>
+    <t>22.08</t>
+  </si>
+  <si>
+    <t>23.08</t>
+  </si>
+  <si>
+    <t>24.08</t>
+  </si>
+  <si>
+    <t>25.08</t>
+  </si>
+  <si>
+    <t>26.08</t>
+  </si>
+  <si>
+    <t>27.08</t>
+  </si>
+  <si>
+    <t>28.08</t>
+  </si>
+  <si>
+    <t>29.08</t>
+  </si>
+  <si>
+    <t>30.08</t>
+  </si>
+  <si>
+    <t>31.08</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>3.09</t>
+  </si>
+  <si>
+    <t>4.09</t>
+  </si>
+  <si>
+    <t>5.09</t>
+  </si>
+  <si>
+    <t>6.09</t>
+  </si>
+  <si>
+    <t>7.09</t>
   </si>
 </sst>
 </file>
@@ -615,7 +1377,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -753,11 +1518,10 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>'kayseri-data-processed'!$A$2:$A$249</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="248"/>
+            <c:strRef>
+              <c:f>'kayseri-data-processed'!$A$2:$A$255</c:f>
+              <c:strCache>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>29.12</c:v>
                 </c:pt>
@@ -771,7 +1535,7 @@
                   <c:v>1.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0099999999999998</c:v>
+                  <c:v>2.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.01</c:v>
@@ -813,19 +1577,19 @@
                   <c:v>15.01</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.010000000000002</c:v>
+                  <c:v>16.01</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.010000000000002</c:v>
+                  <c:v>17.01</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.010000000000002</c:v>
+                  <c:v>18.01</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.010000000000002</c:v>
+                  <c:v>19.01</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.010000000000002</c:v>
+                  <c:v>20.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>21.01</c:v>
@@ -870,10 +1634,10 @@
                   <c:v>3.02</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>4.02</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.0199999999999996</c:v>
+                  <c:v>5.02</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>6.02</c:v>
@@ -951,7 +1715,7 @@
                   <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.0299999999999998</c:v>
+                  <c:v>2.03</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>3.03</c:v>
@@ -969,13 +1733,13 @@
                   <c:v>7.03</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.0299999999999994</c:v>
+                  <c:v>8.03</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9.0299999999999994</c:v>
+                  <c:v>9.03</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>10.029999999999999</c:v>
+                  <c:v>10.03</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>11.03</c:v>
@@ -1062,13 +1826,13 @@
                   <c:v>7.04</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.0399999999999991</c:v>
+                  <c:v>8.04</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>9.0399999999999991</c:v>
+                  <c:v>9.04</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>10.039999999999999</c:v>
+                  <c:v>10.04</c:v>
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>11.04</c:v>
@@ -1134,7 +1898,7 @@
                   <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.0499999999999998</c:v>
+                  <c:v>2.05</c:v>
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>3.05</c:v>
@@ -1152,13 +1916,13 @@
                   <c:v>7.05</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>8.0500000000000007</c:v>
+                  <c:v>8.05</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>9.0500000000000007</c:v>
+                  <c:v>9.05</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>10.050000000000001</c:v>
+                  <c:v>10.05</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>11.05</c:v>
@@ -1233,10 +1997,10 @@
                   <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>4.06</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>5.0599999999999996</c:v>
+                  <c:v>5.06</c:v>
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>6.06</c:v>
@@ -1269,19 +2033,19 @@
                   <c:v>15.06</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>16.059999999999999</c:v>
+                  <c:v>16.06</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>17.059999999999999</c:v>
+                  <c:v>17.06</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>18.059999999999999</c:v>
+                  <c:v>18.06</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>19.059999999999999</c:v>
+                  <c:v>19.06</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>20.059999999999999</c:v>
+                  <c:v>20.06</c:v>
                 </c:pt>
                 <c:pt idx="175">
                   <c:v>21.06</c:v>
@@ -1317,7 +2081,7 @@
                   <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2.0699999999999998</c:v>
+                  <c:v>2.07</c:v>
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>3.07</c:v>
@@ -1452,19 +2216,19 @@
                   <c:v>15.08</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>16.079999999999998</c:v>
+                  <c:v>16.08</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>17.079999999999998</c:v>
+                  <c:v>17.08</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>18.079999999999998</c:v>
+                  <c:v>18.08</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>19.079999999999998</c:v>
+                  <c:v>19.08</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>20.079999999999998</c:v>
+                  <c:v>20.08</c:v>
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>21.08</c:v>
@@ -1500,17 +2264,35 @@
                   <c:v>31.08</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>1.0900000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1.09</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>4.09</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>7.09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'kayseri-data-processed'!$E$2:$E$249</c:f>
+              <c:f>'kayseri-data-processed'!$E$2:$E$255</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="248"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="3">
                   <c:v>10.714285714285714</c:v>
                 </c:pt>
@@ -2238,13 +3020,31 @@
                   <c:v>14.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>15.5</c:v>
+                  <c:v>15.857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>14.8</c:v>
+                  <c:v>15.714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>15.5</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>16.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>17.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>19.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>18.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2283,11 +3083,10 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>'kayseri-data-processed'!$A$2:$A$249</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="248"/>
+            <c:strRef>
+              <c:f>'kayseri-data-processed'!$A$2:$A$255</c:f>
+              <c:strCache>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>29.12</c:v>
                 </c:pt>
@@ -2301,7 +3100,7 @@
                   <c:v>1.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0099999999999998</c:v>
+                  <c:v>2.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.01</c:v>
@@ -2343,19 +3142,19 @@
                   <c:v>15.01</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.010000000000002</c:v>
+                  <c:v>16.01</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.010000000000002</c:v>
+                  <c:v>17.01</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.010000000000002</c:v>
+                  <c:v>18.01</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.010000000000002</c:v>
+                  <c:v>19.01</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.010000000000002</c:v>
+                  <c:v>20.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>21.01</c:v>
@@ -2400,10 +3199,10 @@
                   <c:v>3.02</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>4.02</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.0199999999999996</c:v>
+                  <c:v>5.02</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>6.02</c:v>
@@ -2481,7 +3280,7 @@
                   <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.0299999999999998</c:v>
+                  <c:v>2.03</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>3.03</c:v>
@@ -2499,13 +3298,13 @@
                   <c:v>7.03</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.0299999999999994</c:v>
+                  <c:v>8.03</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9.0299999999999994</c:v>
+                  <c:v>9.03</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>10.029999999999999</c:v>
+                  <c:v>10.03</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>11.03</c:v>
@@ -2592,13 +3391,13 @@
                   <c:v>7.04</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.0399999999999991</c:v>
+                  <c:v>8.04</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>9.0399999999999991</c:v>
+                  <c:v>9.04</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>10.039999999999999</c:v>
+                  <c:v>10.04</c:v>
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>11.04</c:v>
@@ -2664,7 +3463,7 @@
                   <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.0499999999999998</c:v>
+                  <c:v>2.05</c:v>
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>3.05</c:v>
@@ -2682,13 +3481,13 @@
                   <c:v>7.05</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>8.0500000000000007</c:v>
+                  <c:v>8.05</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>9.0500000000000007</c:v>
+                  <c:v>9.05</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>10.050000000000001</c:v>
+                  <c:v>10.05</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>11.05</c:v>
@@ -2763,10 +3562,10 @@
                   <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>4.06</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>5.0599999999999996</c:v>
+                  <c:v>5.06</c:v>
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>6.06</c:v>
@@ -2799,19 +3598,19 @@
                   <c:v>15.06</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>16.059999999999999</c:v>
+                  <c:v>16.06</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>17.059999999999999</c:v>
+                  <c:v>17.06</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>18.059999999999999</c:v>
+                  <c:v>18.06</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>19.059999999999999</c:v>
+                  <c:v>19.06</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>20.059999999999999</c:v>
+                  <c:v>20.06</c:v>
                 </c:pt>
                 <c:pt idx="175">
                   <c:v>21.06</c:v>
@@ -2847,7 +3646,7 @@
                   <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2.0699999999999998</c:v>
+                  <c:v>2.07</c:v>
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>3.07</c:v>
@@ -2982,19 +3781,19 @@
                   <c:v>15.08</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>16.079999999999998</c:v>
+                  <c:v>16.08</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>17.079999999999998</c:v>
+                  <c:v>17.08</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>18.079999999999998</c:v>
+                  <c:v>18.08</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>19.079999999999998</c:v>
+                  <c:v>19.08</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>20.079999999999998</c:v>
+                  <c:v>20.08</c:v>
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>21.08</c:v>
@@ -3030,17 +3829,35 @@
                   <c:v>31.08</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>1.0900000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1.09</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>4.09</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>7.09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'kayseri-data-processed'!$F$2:$F$249</c:f>
+              <c:f>'kayseri-data-processed'!$F$2:$F$255</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="248"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="3">
                   <c:v>9.7142857142857135</c:v>
                 </c:pt>
@@ -3768,13 +4585,31 @@
                   <c:v>6.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>6.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>7.4</c:v>
+                  <c:v>6.4285714285714288</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>7.5</c:v>
+                  <c:v>6.1428571428571432</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>5.5714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>5.4285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3813,11 +4648,10 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>'kayseri-data-processed'!$A$2:$A$249</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="248"/>
+            <c:strRef>
+              <c:f>'kayseri-data-processed'!$A$2:$A$255</c:f>
+              <c:strCache>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>29.12</c:v>
                 </c:pt>
@@ -3831,7 +4665,7 @@
                   <c:v>1.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0099999999999998</c:v>
+                  <c:v>2.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.01</c:v>
@@ -3873,19 +4707,19 @@
                   <c:v>15.01</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.010000000000002</c:v>
+                  <c:v>16.01</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.010000000000002</c:v>
+                  <c:v>17.01</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.010000000000002</c:v>
+                  <c:v>18.01</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.010000000000002</c:v>
+                  <c:v>19.01</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.010000000000002</c:v>
+                  <c:v>20.01</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>21.01</c:v>
@@ -3930,10 +4764,10 @@
                   <c:v>3.02</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>4.02</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.0199999999999996</c:v>
+                  <c:v>5.02</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>6.02</c:v>
@@ -4011,7 +4845,7 @@
                   <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.0299999999999998</c:v>
+                  <c:v>2.03</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>3.03</c:v>
@@ -4029,13 +4863,13 @@
                   <c:v>7.03</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.0299999999999994</c:v>
+                  <c:v>8.03</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9.0299999999999994</c:v>
+                  <c:v>9.03</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>10.029999999999999</c:v>
+                  <c:v>10.03</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>11.03</c:v>
@@ -4122,13 +4956,13 @@
                   <c:v>7.04</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.0399999999999991</c:v>
+                  <c:v>8.04</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>9.0399999999999991</c:v>
+                  <c:v>9.04</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>10.039999999999999</c:v>
+                  <c:v>10.04</c:v>
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>11.04</c:v>
@@ -4194,7 +5028,7 @@
                   <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.0499999999999998</c:v>
+                  <c:v>2.05</c:v>
                 </c:pt>
                 <c:pt idx="126">
                   <c:v>3.05</c:v>
@@ -4212,13 +5046,13 @@
                   <c:v>7.05</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>8.0500000000000007</c:v>
+                  <c:v>8.05</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>9.0500000000000007</c:v>
+                  <c:v>9.05</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>10.050000000000001</c:v>
+                  <c:v>10.05</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>11.05</c:v>
@@ -4293,10 +5127,10 @@
                   <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>4.06</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>5.0599999999999996</c:v>
+                  <c:v>5.06</c:v>
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>6.06</c:v>
@@ -4329,19 +5163,19 @@
                   <c:v>15.06</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>16.059999999999999</c:v>
+                  <c:v>16.06</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>17.059999999999999</c:v>
+                  <c:v>17.06</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>18.059999999999999</c:v>
+                  <c:v>18.06</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>19.059999999999999</c:v>
+                  <c:v>19.06</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>20.059999999999999</c:v>
+                  <c:v>20.06</c:v>
                 </c:pt>
                 <c:pt idx="175">
                   <c:v>21.06</c:v>
@@ -4377,7 +5211,7 @@
                   <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2.0699999999999998</c:v>
+                  <c:v>2.07</c:v>
                 </c:pt>
                 <c:pt idx="187">
                   <c:v>3.07</c:v>
@@ -4512,19 +5346,19 @@
                   <c:v>15.08</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>16.079999999999998</c:v>
+                  <c:v>16.08</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>17.079999999999998</c:v>
+                  <c:v>17.08</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>18.079999999999998</c:v>
+                  <c:v>18.08</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>19.079999999999998</c:v>
+                  <c:v>19.08</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>20.079999999999998</c:v>
+                  <c:v>20.08</c:v>
                 </c:pt>
                 <c:pt idx="236">
                   <c:v>21.08</c:v>
@@ -4560,17 +5394,35 @@
                   <c:v>31.08</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>1.0900000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1.09</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>4.09</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>7.09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'kayseri-data-processed'!$G$2:$G$249</c:f>
+              <c:f>'kayseri-data-processed'!$G$2:$G$255</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="248"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="3">
                   <c:v>7.5714285714285712</c:v>
                 </c:pt>
@@ -5298,13 +6150,31 @@
                   <c:v>7.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>7.666666666666667</c:v>
+                  <c:v>7.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>7.8</c:v>
+                  <c:v>6.7142857142857144</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>8.25</c:v>
+                  <c:v>6.5714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>5.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>5.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>5.1428571428571432</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5363,17 +6233,16 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:numRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'kayseri-data-processed'!$A$2:$A$249</c15:sqref>
+                          <c15:sqref>'kayseri-data-processed'!$A$2:$A$255</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="248"/>
+                    <c:strCache>
+                      <c:ptCount val="254"/>
                       <c:pt idx="0">
                         <c:v>29.12</c:v>
                       </c:pt>
@@ -5387,7 +6256,7 @@
                         <c:v>1.01</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2.0099999999999998</c:v>
+                        <c:v>2.01</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>3.01</c:v>
@@ -5429,19 +6298,19 @@
                         <c:v>15.01</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>16.010000000000002</c:v>
+                        <c:v>16.01</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>17.010000000000002</c:v>
+                        <c:v>17.01</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>18.010000000000002</c:v>
+                        <c:v>18.01</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>19.010000000000002</c:v>
+                        <c:v>19.01</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>20.010000000000002</c:v>
+                        <c:v>20.01</c:v>
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>21.01</c:v>
@@ -5486,10 +6355,10 @@
                         <c:v>3.02</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>4.0199999999999996</c:v>
+                        <c:v>4.02</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>5.0199999999999996</c:v>
+                        <c:v>5.02</c:v>
                       </c:pt>
                       <c:pt idx="39">
                         <c:v>6.02</c:v>
@@ -5567,7 +6436,7 @@
                         <c:v>1.03</c:v>
                       </c:pt>
                       <c:pt idx="64">
-                        <c:v>2.0299999999999998</c:v>
+                        <c:v>2.03</c:v>
                       </c:pt>
                       <c:pt idx="65">
                         <c:v>3.03</c:v>
@@ -5585,13 +6454,13 @@
                         <c:v>7.03</c:v>
                       </c:pt>
                       <c:pt idx="70">
-                        <c:v>8.0299999999999994</c:v>
+                        <c:v>8.03</c:v>
                       </c:pt>
                       <c:pt idx="71">
-                        <c:v>9.0299999999999994</c:v>
+                        <c:v>9.03</c:v>
                       </c:pt>
                       <c:pt idx="72">
-                        <c:v>10.029999999999999</c:v>
+                        <c:v>10.03</c:v>
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>11.03</c:v>
@@ -5678,13 +6547,13 @@
                         <c:v>7.04</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>8.0399999999999991</c:v>
+                        <c:v>8.04</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>9.0399999999999991</c:v>
+                        <c:v>9.04</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>10.039999999999999</c:v>
+                        <c:v>10.04</c:v>
                       </c:pt>
                       <c:pt idx="104">
                         <c:v>11.04</c:v>
@@ -5750,7 +6619,7 @@
                         <c:v>1.05</c:v>
                       </c:pt>
                       <c:pt idx="125">
-                        <c:v>2.0499999999999998</c:v>
+                        <c:v>2.05</c:v>
                       </c:pt>
                       <c:pt idx="126">
                         <c:v>3.05</c:v>
@@ -5768,13 +6637,13 @@
                         <c:v>7.05</c:v>
                       </c:pt>
                       <c:pt idx="131">
-                        <c:v>8.0500000000000007</c:v>
+                        <c:v>8.05</c:v>
                       </c:pt>
                       <c:pt idx="132">
-                        <c:v>9.0500000000000007</c:v>
+                        <c:v>9.05</c:v>
                       </c:pt>
                       <c:pt idx="133">
-                        <c:v>10.050000000000001</c:v>
+                        <c:v>10.05</c:v>
                       </c:pt>
                       <c:pt idx="134">
                         <c:v>11.05</c:v>
@@ -5849,10 +6718,10 @@
                         <c:v>3.06</c:v>
                       </c:pt>
                       <c:pt idx="158">
-                        <c:v>4.0599999999999996</c:v>
+                        <c:v>4.06</c:v>
                       </c:pt>
                       <c:pt idx="159">
-                        <c:v>5.0599999999999996</c:v>
+                        <c:v>5.06</c:v>
                       </c:pt>
                       <c:pt idx="160">
                         <c:v>6.06</c:v>
@@ -5885,19 +6754,19 @@
                         <c:v>15.06</c:v>
                       </c:pt>
                       <c:pt idx="170">
-                        <c:v>16.059999999999999</c:v>
+                        <c:v>16.06</c:v>
                       </c:pt>
                       <c:pt idx="171">
-                        <c:v>17.059999999999999</c:v>
+                        <c:v>17.06</c:v>
                       </c:pt>
                       <c:pt idx="172">
-                        <c:v>18.059999999999999</c:v>
+                        <c:v>18.06</c:v>
                       </c:pt>
                       <c:pt idx="173">
-                        <c:v>19.059999999999999</c:v>
+                        <c:v>19.06</c:v>
                       </c:pt>
                       <c:pt idx="174">
-                        <c:v>20.059999999999999</c:v>
+                        <c:v>20.06</c:v>
                       </c:pt>
                       <c:pt idx="175">
                         <c:v>21.06</c:v>
@@ -5933,7 +6802,7 @@
                         <c:v>1.07</c:v>
                       </c:pt>
                       <c:pt idx="186">
-                        <c:v>2.0699999999999998</c:v>
+                        <c:v>2.07</c:v>
                       </c:pt>
                       <c:pt idx="187">
                         <c:v>3.07</c:v>
@@ -6068,19 +6937,19 @@
                         <c:v>15.08</c:v>
                       </c:pt>
                       <c:pt idx="231">
-                        <c:v>16.079999999999998</c:v>
+                        <c:v>16.08</c:v>
                       </c:pt>
                       <c:pt idx="232">
-                        <c:v>17.079999999999998</c:v>
+                        <c:v>17.08</c:v>
                       </c:pt>
                       <c:pt idx="233">
-                        <c:v>18.079999999999998</c:v>
+                        <c:v>18.08</c:v>
                       </c:pt>
                       <c:pt idx="234">
-                        <c:v>19.079999999999998</c:v>
+                        <c:v>19.08</c:v>
                       </c:pt>
                       <c:pt idx="235">
-                        <c:v>20.079999999999998</c:v>
+                        <c:v>20.08</c:v>
                       </c:pt>
                       <c:pt idx="236">
                         <c:v>21.08</c:v>
@@ -6116,23 +6985,41 @@
                         <c:v>31.08</c:v>
                       </c:pt>
                       <c:pt idx="247">
-                        <c:v>1.0900000000000001</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
+                        <c:v>1.09</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>2.09</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>3.09</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>4.09</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>5.09</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>6.09</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>7.09</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'kayseri-data-processed'!$B$2:$B$249</c15:sqref>
+                          <c15:sqref>'kayseri-data-processed'!$B$2:$B$255</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="248"/>
+                      <c:ptCount val="254"/>
                       <c:pt idx="0">
                         <c:v>10</c:v>
                       </c:pt>
@@ -6876,6 +7763,24 @@
                       </c:pt>
                       <c:pt idx="247">
                         <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>25</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6922,17 +7827,16 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:numRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'kayseri-data-processed'!$A$2:$A$249</c15:sqref>
+                          <c15:sqref>'kayseri-data-processed'!$A$2:$A$255</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="248"/>
+                    <c:strCache>
+                      <c:ptCount val="254"/>
                       <c:pt idx="0">
                         <c:v>29.12</c:v>
                       </c:pt>
@@ -6946,7 +7850,7 @@
                         <c:v>1.01</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2.0099999999999998</c:v>
+                        <c:v>2.01</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>3.01</c:v>
@@ -6988,19 +7892,19 @@
                         <c:v>15.01</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>16.010000000000002</c:v>
+                        <c:v>16.01</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>17.010000000000002</c:v>
+                        <c:v>17.01</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>18.010000000000002</c:v>
+                        <c:v>18.01</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>19.010000000000002</c:v>
+                        <c:v>19.01</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>20.010000000000002</c:v>
+                        <c:v>20.01</c:v>
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>21.01</c:v>
@@ -7045,10 +7949,10 @@
                         <c:v>3.02</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>4.0199999999999996</c:v>
+                        <c:v>4.02</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>5.0199999999999996</c:v>
+                        <c:v>5.02</c:v>
                       </c:pt>
                       <c:pt idx="39">
                         <c:v>6.02</c:v>
@@ -7126,7 +8030,7 @@
                         <c:v>1.03</c:v>
                       </c:pt>
                       <c:pt idx="64">
-                        <c:v>2.0299999999999998</c:v>
+                        <c:v>2.03</c:v>
                       </c:pt>
                       <c:pt idx="65">
                         <c:v>3.03</c:v>
@@ -7144,13 +8048,13 @@
                         <c:v>7.03</c:v>
                       </c:pt>
                       <c:pt idx="70">
-                        <c:v>8.0299999999999994</c:v>
+                        <c:v>8.03</c:v>
                       </c:pt>
                       <c:pt idx="71">
-                        <c:v>9.0299999999999994</c:v>
+                        <c:v>9.03</c:v>
                       </c:pt>
                       <c:pt idx="72">
-                        <c:v>10.029999999999999</c:v>
+                        <c:v>10.03</c:v>
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>11.03</c:v>
@@ -7237,13 +8141,13 @@
                         <c:v>7.04</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>8.0399999999999991</c:v>
+                        <c:v>8.04</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>9.0399999999999991</c:v>
+                        <c:v>9.04</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>10.039999999999999</c:v>
+                        <c:v>10.04</c:v>
                       </c:pt>
                       <c:pt idx="104">
                         <c:v>11.04</c:v>
@@ -7309,7 +8213,7 @@
                         <c:v>1.05</c:v>
                       </c:pt>
                       <c:pt idx="125">
-                        <c:v>2.0499999999999998</c:v>
+                        <c:v>2.05</c:v>
                       </c:pt>
                       <c:pt idx="126">
                         <c:v>3.05</c:v>
@@ -7327,13 +8231,13 @@
                         <c:v>7.05</c:v>
                       </c:pt>
                       <c:pt idx="131">
-                        <c:v>8.0500000000000007</c:v>
+                        <c:v>8.05</c:v>
                       </c:pt>
                       <c:pt idx="132">
-                        <c:v>9.0500000000000007</c:v>
+                        <c:v>9.05</c:v>
                       </c:pt>
                       <c:pt idx="133">
-                        <c:v>10.050000000000001</c:v>
+                        <c:v>10.05</c:v>
                       </c:pt>
                       <c:pt idx="134">
                         <c:v>11.05</c:v>
@@ -7408,10 +8312,10 @@
                         <c:v>3.06</c:v>
                       </c:pt>
                       <c:pt idx="158">
-                        <c:v>4.0599999999999996</c:v>
+                        <c:v>4.06</c:v>
                       </c:pt>
                       <c:pt idx="159">
-                        <c:v>5.0599999999999996</c:v>
+                        <c:v>5.06</c:v>
                       </c:pt>
                       <c:pt idx="160">
                         <c:v>6.06</c:v>
@@ -7444,19 +8348,19 @@
                         <c:v>15.06</c:v>
                       </c:pt>
                       <c:pt idx="170">
-                        <c:v>16.059999999999999</c:v>
+                        <c:v>16.06</c:v>
                       </c:pt>
                       <c:pt idx="171">
-                        <c:v>17.059999999999999</c:v>
+                        <c:v>17.06</c:v>
                       </c:pt>
                       <c:pt idx="172">
-                        <c:v>18.059999999999999</c:v>
+                        <c:v>18.06</c:v>
                       </c:pt>
                       <c:pt idx="173">
-                        <c:v>19.059999999999999</c:v>
+                        <c:v>19.06</c:v>
                       </c:pt>
                       <c:pt idx="174">
-                        <c:v>20.059999999999999</c:v>
+                        <c:v>20.06</c:v>
                       </c:pt>
                       <c:pt idx="175">
                         <c:v>21.06</c:v>
@@ -7492,7 +8396,7 @@
                         <c:v>1.07</c:v>
                       </c:pt>
                       <c:pt idx="186">
-                        <c:v>2.0699999999999998</c:v>
+                        <c:v>2.07</c:v>
                       </c:pt>
                       <c:pt idx="187">
                         <c:v>3.07</c:v>
@@ -7627,19 +8531,19 @@
                         <c:v>15.08</c:v>
                       </c:pt>
                       <c:pt idx="231">
-                        <c:v>16.079999999999998</c:v>
+                        <c:v>16.08</c:v>
                       </c:pt>
                       <c:pt idx="232">
-                        <c:v>17.079999999999998</c:v>
+                        <c:v>17.08</c:v>
                       </c:pt>
                       <c:pt idx="233">
-                        <c:v>18.079999999999998</c:v>
+                        <c:v>18.08</c:v>
                       </c:pt>
                       <c:pt idx="234">
-                        <c:v>19.079999999999998</c:v>
+                        <c:v>19.08</c:v>
                       </c:pt>
                       <c:pt idx="235">
-                        <c:v>20.079999999999998</c:v>
+                        <c:v>20.08</c:v>
                       </c:pt>
                       <c:pt idx="236">
                         <c:v>21.08</c:v>
@@ -7675,23 +8579,41 @@
                         <c:v>31.08</c:v>
                       </c:pt>
                       <c:pt idx="247">
-                        <c:v>1.0900000000000001</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
+                        <c:v>1.09</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>2.09</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>3.09</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>4.09</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>5.09</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>6.09</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>7.09</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'kayseri-data-processed'!$C$2:$C$249</c15:sqref>
+                          <c15:sqref>'kayseri-data-processed'!$C$2:$C$255</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="248"/>
+                      <c:ptCount val="254"/>
                       <c:pt idx="0">
                         <c:v>10</c:v>
                       </c:pt>
@@ -8435,6 +9357,24 @@
                       </c:pt>
                       <c:pt idx="247">
                         <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>8</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8481,17 +9421,16 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:numRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'kayseri-data-processed'!$A$2:$A$249</c15:sqref>
+                          <c15:sqref>'kayseri-data-processed'!$A$2:$A$255</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="248"/>
+                    <c:strCache>
+                      <c:ptCount val="254"/>
                       <c:pt idx="0">
                         <c:v>29.12</c:v>
                       </c:pt>
@@ -8505,7 +9444,7 @@
                         <c:v>1.01</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2.0099999999999998</c:v>
+                        <c:v>2.01</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>3.01</c:v>
@@ -8547,19 +9486,19 @@
                         <c:v>15.01</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>16.010000000000002</c:v>
+                        <c:v>16.01</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>17.010000000000002</c:v>
+                        <c:v>17.01</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>18.010000000000002</c:v>
+                        <c:v>18.01</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>19.010000000000002</c:v>
+                        <c:v>19.01</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>20.010000000000002</c:v>
+                        <c:v>20.01</c:v>
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>21.01</c:v>
@@ -8604,10 +9543,10 @@
                         <c:v>3.02</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>4.0199999999999996</c:v>
+                        <c:v>4.02</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>5.0199999999999996</c:v>
+                        <c:v>5.02</c:v>
                       </c:pt>
                       <c:pt idx="39">
                         <c:v>6.02</c:v>
@@ -8685,7 +9624,7 @@
                         <c:v>1.03</c:v>
                       </c:pt>
                       <c:pt idx="64">
-                        <c:v>2.0299999999999998</c:v>
+                        <c:v>2.03</c:v>
                       </c:pt>
                       <c:pt idx="65">
                         <c:v>3.03</c:v>
@@ -8703,13 +9642,13 @@
                         <c:v>7.03</c:v>
                       </c:pt>
                       <c:pt idx="70">
-                        <c:v>8.0299999999999994</c:v>
+                        <c:v>8.03</c:v>
                       </c:pt>
                       <c:pt idx="71">
-                        <c:v>9.0299999999999994</c:v>
+                        <c:v>9.03</c:v>
                       </c:pt>
                       <c:pt idx="72">
-                        <c:v>10.029999999999999</c:v>
+                        <c:v>10.03</c:v>
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>11.03</c:v>
@@ -8796,13 +9735,13 @@
                         <c:v>7.04</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>8.0399999999999991</c:v>
+                        <c:v>8.04</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>9.0399999999999991</c:v>
+                        <c:v>9.04</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>10.039999999999999</c:v>
+                        <c:v>10.04</c:v>
                       </c:pt>
                       <c:pt idx="104">
                         <c:v>11.04</c:v>
@@ -8868,7 +9807,7 @@
                         <c:v>1.05</c:v>
                       </c:pt>
                       <c:pt idx="125">
-                        <c:v>2.0499999999999998</c:v>
+                        <c:v>2.05</c:v>
                       </c:pt>
                       <c:pt idx="126">
                         <c:v>3.05</c:v>
@@ -8886,13 +9825,13 @@
                         <c:v>7.05</c:v>
                       </c:pt>
                       <c:pt idx="131">
-                        <c:v>8.0500000000000007</c:v>
+                        <c:v>8.05</c:v>
                       </c:pt>
                       <c:pt idx="132">
-                        <c:v>9.0500000000000007</c:v>
+                        <c:v>9.05</c:v>
                       </c:pt>
                       <c:pt idx="133">
-                        <c:v>10.050000000000001</c:v>
+                        <c:v>10.05</c:v>
                       </c:pt>
                       <c:pt idx="134">
                         <c:v>11.05</c:v>
@@ -8967,10 +9906,10 @@
                         <c:v>3.06</c:v>
                       </c:pt>
                       <c:pt idx="158">
-                        <c:v>4.0599999999999996</c:v>
+                        <c:v>4.06</c:v>
                       </c:pt>
                       <c:pt idx="159">
-                        <c:v>5.0599999999999996</c:v>
+                        <c:v>5.06</c:v>
                       </c:pt>
                       <c:pt idx="160">
                         <c:v>6.06</c:v>
@@ -9003,19 +9942,19 @@
                         <c:v>15.06</c:v>
                       </c:pt>
                       <c:pt idx="170">
-                        <c:v>16.059999999999999</c:v>
+                        <c:v>16.06</c:v>
                       </c:pt>
                       <c:pt idx="171">
-                        <c:v>17.059999999999999</c:v>
+                        <c:v>17.06</c:v>
                       </c:pt>
                       <c:pt idx="172">
-                        <c:v>18.059999999999999</c:v>
+                        <c:v>18.06</c:v>
                       </c:pt>
                       <c:pt idx="173">
-                        <c:v>19.059999999999999</c:v>
+                        <c:v>19.06</c:v>
                       </c:pt>
                       <c:pt idx="174">
-                        <c:v>20.059999999999999</c:v>
+                        <c:v>20.06</c:v>
                       </c:pt>
                       <c:pt idx="175">
                         <c:v>21.06</c:v>
@@ -9051,7 +9990,7 @@
                         <c:v>1.07</c:v>
                       </c:pt>
                       <c:pt idx="186">
-                        <c:v>2.0699999999999998</c:v>
+                        <c:v>2.07</c:v>
                       </c:pt>
                       <c:pt idx="187">
                         <c:v>3.07</c:v>
@@ -9186,19 +10125,19 @@
                         <c:v>15.08</c:v>
                       </c:pt>
                       <c:pt idx="231">
-                        <c:v>16.079999999999998</c:v>
+                        <c:v>16.08</c:v>
                       </c:pt>
                       <c:pt idx="232">
-                        <c:v>17.079999999999998</c:v>
+                        <c:v>17.08</c:v>
                       </c:pt>
                       <c:pt idx="233">
-                        <c:v>18.079999999999998</c:v>
+                        <c:v>18.08</c:v>
                       </c:pt>
                       <c:pt idx="234">
-                        <c:v>19.079999999999998</c:v>
+                        <c:v>19.08</c:v>
                       </c:pt>
                       <c:pt idx="235">
-                        <c:v>20.079999999999998</c:v>
+                        <c:v>20.08</c:v>
                       </c:pt>
                       <c:pt idx="236">
                         <c:v>21.08</c:v>
@@ -9234,23 +10173,41 @@
                         <c:v>31.08</c:v>
                       </c:pt>
                       <c:pt idx="247">
-                        <c:v>1.0900000000000001</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
+                        <c:v>1.09</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>2.09</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>3.09</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>4.09</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>5.09</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>6.09</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>7.09</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'kayseri-data-processed'!$D$2:$D$249</c15:sqref>
+                          <c15:sqref>'kayseri-data-processed'!$D$2:$D$255</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="248"/>
+                      <c:ptCount val="254"/>
                       <c:pt idx="0">
                         <c:v>11</c:v>
                       </c:pt>
@@ -9994,6 +10951,24 @@
                       </c:pt>
                       <c:pt idx="247">
                         <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>7</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10042,17 +11017,16 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:numRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'kayseri-data-processed'!$A$2:$A$249</c15:sqref>
+                          <c15:sqref>'kayseri-data-processed'!$A$2:$A$255</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="248"/>
+                    <c:strCache>
+                      <c:ptCount val="254"/>
                       <c:pt idx="0">
                         <c:v>29.12</c:v>
                       </c:pt>
@@ -10066,7 +11040,7 @@
                         <c:v>1.01</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2.0099999999999998</c:v>
+                        <c:v>2.01</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>3.01</c:v>
@@ -10108,19 +11082,19 @@
                         <c:v>15.01</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>16.010000000000002</c:v>
+                        <c:v>16.01</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>17.010000000000002</c:v>
+                        <c:v>17.01</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>18.010000000000002</c:v>
+                        <c:v>18.01</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>19.010000000000002</c:v>
+                        <c:v>19.01</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>20.010000000000002</c:v>
+                        <c:v>20.01</c:v>
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>21.01</c:v>
@@ -10165,10 +11139,10 @@
                         <c:v>3.02</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>4.0199999999999996</c:v>
+                        <c:v>4.02</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>5.0199999999999996</c:v>
+                        <c:v>5.02</c:v>
                       </c:pt>
                       <c:pt idx="39">
                         <c:v>6.02</c:v>
@@ -10246,7 +11220,7 @@
                         <c:v>1.03</c:v>
                       </c:pt>
                       <c:pt idx="64">
-                        <c:v>2.0299999999999998</c:v>
+                        <c:v>2.03</c:v>
                       </c:pt>
                       <c:pt idx="65">
                         <c:v>3.03</c:v>
@@ -10264,13 +11238,13 @@
                         <c:v>7.03</c:v>
                       </c:pt>
                       <c:pt idx="70">
-                        <c:v>8.0299999999999994</c:v>
+                        <c:v>8.03</c:v>
                       </c:pt>
                       <c:pt idx="71">
-                        <c:v>9.0299999999999994</c:v>
+                        <c:v>9.03</c:v>
                       </c:pt>
                       <c:pt idx="72">
-                        <c:v>10.029999999999999</c:v>
+                        <c:v>10.03</c:v>
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>11.03</c:v>
@@ -10357,13 +11331,13 @@
                         <c:v>7.04</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>8.0399999999999991</c:v>
+                        <c:v>8.04</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>9.0399999999999991</c:v>
+                        <c:v>9.04</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>10.039999999999999</c:v>
+                        <c:v>10.04</c:v>
                       </c:pt>
                       <c:pt idx="104">
                         <c:v>11.04</c:v>
@@ -10429,7 +11403,7 @@
                         <c:v>1.05</c:v>
                       </c:pt>
                       <c:pt idx="125">
-                        <c:v>2.0499999999999998</c:v>
+                        <c:v>2.05</c:v>
                       </c:pt>
                       <c:pt idx="126">
                         <c:v>3.05</c:v>
@@ -10447,13 +11421,13 @@
                         <c:v>7.05</c:v>
                       </c:pt>
                       <c:pt idx="131">
-                        <c:v>8.0500000000000007</c:v>
+                        <c:v>8.05</c:v>
                       </c:pt>
                       <c:pt idx="132">
-                        <c:v>9.0500000000000007</c:v>
+                        <c:v>9.05</c:v>
                       </c:pt>
                       <c:pt idx="133">
-                        <c:v>10.050000000000001</c:v>
+                        <c:v>10.05</c:v>
                       </c:pt>
                       <c:pt idx="134">
                         <c:v>11.05</c:v>
@@ -10528,10 +11502,10 @@
                         <c:v>3.06</c:v>
                       </c:pt>
                       <c:pt idx="158">
-                        <c:v>4.0599999999999996</c:v>
+                        <c:v>4.06</c:v>
                       </c:pt>
                       <c:pt idx="159">
-                        <c:v>5.0599999999999996</c:v>
+                        <c:v>5.06</c:v>
                       </c:pt>
                       <c:pt idx="160">
                         <c:v>6.06</c:v>
@@ -10564,19 +11538,19 @@
                         <c:v>15.06</c:v>
                       </c:pt>
                       <c:pt idx="170">
-                        <c:v>16.059999999999999</c:v>
+                        <c:v>16.06</c:v>
                       </c:pt>
                       <c:pt idx="171">
-                        <c:v>17.059999999999999</c:v>
+                        <c:v>17.06</c:v>
                       </c:pt>
                       <c:pt idx="172">
-                        <c:v>18.059999999999999</c:v>
+                        <c:v>18.06</c:v>
                       </c:pt>
                       <c:pt idx="173">
-                        <c:v>19.059999999999999</c:v>
+                        <c:v>19.06</c:v>
                       </c:pt>
                       <c:pt idx="174">
-                        <c:v>20.059999999999999</c:v>
+                        <c:v>20.06</c:v>
                       </c:pt>
                       <c:pt idx="175">
                         <c:v>21.06</c:v>
@@ -10612,7 +11586,7 @@
                         <c:v>1.07</c:v>
                       </c:pt>
                       <c:pt idx="186">
-                        <c:v>2.0699999999999998</c:v>
+                        <c:v>2.07</c:v>
                       </c:pt>
                       <c:pt idx="187">
                         <c:v>3.07</c:v>
@@ -10747,19 +11721,19 @@
                         <c:v>15.08</c:v>
                       </c:pt>
                       <c:pt idx="231">
-                        <c:v>16.079999999999998</c:v>
+                        <c:v>16.08</c:v>
                       </c:pt>
                       <c:pt idx="232">
-                        <c:v>17.079999999999998</c:v>
+                        <c:v>17.08</c:v>
                       </c:pt>
                       <c:pt idx="233">
-                        <c:v>18.079999999999998</c:v>
+                        <c:v>18.08</c:v>
                       </c:pt>
                       <c:pt idx="234">
-                        <c:v>19.079999999999998</c:v>
+                        <c:v>19.08</c:v>
                       </c:pt>
                       <c:pt idx="235">
-                        <c:v>20.079999999999998</c:v>
+                        <c:v>20.08</c:v>
                       </c:pt>
                       <c:pt idx="236">
                         <c:v>21.08</c:v>
@@ -10795,23 +11769,41 @@
                         <c:v>31.08</c:v>
                       </c:pt>
                       <c:pt idx="247">
-                        <c:v>1.0900000000000001</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
+                        <c:v>1.09</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>2.09</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>3.09</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>4.09</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>5.09</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>6.09</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>7.09</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'kayseri-data-processed'!$H$2:$H$249</c15:sqref>
+                          <c15:sqref>'kayseri-data-processed'!$H$2:$H$255</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="248"/>
+                      <c:ptCount val="254"/>
                       <c:pt idx="0">
                         <c:v>8.5</c:v>
                       </c:pt>
@@ -11554,7 +12546,25 @@
                         <c:v>16.333333333333332</c:v>
                       </c:pt>
                       <c:pt idx="247">
-                        <c:v>17.5</c:v>
+                        <c:v>17.666666666666668</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>19.666666666666668</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>18.666666666666668</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>15.666666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>20.666666666666668</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>23.5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11603,17 +12613,16 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:numRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'kayseri-data-processed'!$A$2:$A$249</c15:sqref>
+                          <c15:sqref>'kayseri-data-processed'!$A$2:$A$255</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="248"/>
+                    <c:strCache>
+                      <c:ptCount val="254"/>
                       <c:pt idx="0">
                         <c:v>29.12</c:v>
                       </c:pt>
@@ -11627,7 +12636,7 @@
                         <c:v>1.01</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2.0099999999999998</c:v>
+                        <c:v>2.01</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>3.01</c:v>
@@ -11669,19 +12678,19 @@
                         <c:v>15.01</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>16.010000000000002</c:v>
+                        <c:v>16.01</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>17.010000000000002</c:v>
+                        <c:v>17.01</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>18.010000000000002</c:v>
+                        <c:v>18.01</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>19.010000000000002</c:v>
+                        <c:v>19.01</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>20.010000000000002</c:v>
+                        <c:v>20.01</c:v>
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>21.01</c:v>
@@ -11726,10 +12735,10 @@
                         <c:v>3.02</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>4.0199999999999996</c:v>
+                        <c:v>4.02</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>5.0199999999999996</c:v>
+                        <c:v>5.02</c:v>
                       </c:pt>
                       <c:pt idx="39">
                         <c:v>6.02</c:v>
@@ -11807,7 +12816,7 @@
                         <c:v>1.03</c:v>
                       </c:pt>
                       <c:pt idx="64">
-                        <c:v>2.0299999999999998</c:v>
+                        <c:v>2.03</c:v>
                       </c:pt>
                       <c:pt idx="65">
                         <c:v>3.03</c:v>
@@ -11825,13 +12834,13 @@
                         <c:v>7.03</c:v>
                       </c:pt>
                       <c:pt idx="70">
-                        <c:v>8.0299999999999994</c:v>
+                        <c:v>8.03</c:v>
                       </c:pt>
                       <c:pt idx="71">
-                        <c:v>9.0299999999999994</c:v>
+                        <c:v>9.03</c:v>
                       </c:pt>
                       <c:pt idx="72">
-                        <c:v>10.029999999999999</c:v>
+                        <c:v>10.03</c:v>
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>11.03</c:v>
@@ -11918,13 +12927,13 @@
                         <c:v>7.04</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>8.0399999999999991</c:v>
+                        <c:v>8.04</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>9.0399999999999991</c:v>
+                        <c:v>9.04</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>10.039999999999999</c:v>
+                        <c:v>10.04</c:v>
                       </c:pt>
                       <c:pt idx="104">
                         <c:v>11.04</c:v>
@@ -11990,7 +12999,7 @@
                         <c:v>1.05</c:v>
                       </c:pt>
                       <c:pt idx="125">
-                        <c:v>2.0499999999999998</c:v>
+                        <c:v>2.05</c:v>
                       </c:pt>
                       <c:pt idx="126">
                         <c:v>3.05</c:v>
@@ -12008,13 +13017,13 @@
                         <c:v>7.05</c:v>
                       </c:pt>
                       <c:pt idx="131">
-                        <c:v>8.0500000000000007</c:v>
+                        <c:v>8.05</c:v>
                       </c:pt>
                       <c:pt idx="132">
-                        <c:v>9.0500000000000007</c:v>
+                        <c:v>9.05</c:v>
                       </c:pt>
                       <c:pt idx="133">
-                        <c:v>10.050000000000001</c:v>
+                        <c:v>10.05</c:v>
                       </c:pt>
                       <c:pt idx="134">
                         <c:v>11.05</c:v>
@@ -12089,10 +13098,10 @@
                         <c:v>3.06</c:v>
                       </c:pt>
                       <c:pt idx="158">
-                        <c:v>4.0599999999999996</c:v>
+                        <c:v>4.06</c:v>
                       </c:pt>
                       <c:pt idx="159">
-                        <c:v>5.0599999999999996</c:v>
+                        <c:v>5.06</c:v>
                       </c:pt>
                       <c:pt idx="160">
                         <c:v>6.06</c:v>
@@ -12125,19 +13134,19 @@
                         <c:v>15.06</c:v>
                       </c:pt>
                       <c:pt idx="170">
-                        <c:v>16.059999999999999</c:v>
+                        <c:v>16.06</c:v>
                       </c:pt>
                       <c:pt idx="171">
-                        <c:v>17.059999999999999</c:v>
+                        <c:v>17.06</c:v>
                       </c:pt>
                       <c:pt idx="172">
-                        <c:v>18.059999999999999</c:v>
+                        <c:v>18.06</c:v>
                       </c:pt>
                       <c:pt idx="173">
-                        <c:v>19.059999999999999</c:v>
+                        <c:v>19.06</c:v>
                       </c:pt>
                       <c:pt idx="174">
-                        <c:v>20.059999999999999</c:v>
+                        <c:v>20.06</c:v>
                       </c:pt>
                       <c:pt idx="175">
                         <c:v>21.06</c:v>
@@ -12173,7 +13182,7 @@
                         <c:v>1.07</c:v>
                       </c:pt>
                       <c:pt idx="186">
-                        <c:v>2.0699999999999998</c:v>
+                        <c:v>2.07</c:v>
                       </c:pt>
                       <c:pt idx="187">
                         <c:v>3.07</c:v>
@@ -12308,19 +13317,19 @@
                         <c:v>15.08</c:v>
                       </c:pt>
                       <c:pt idx="231">
-                        <c:v>16.079999999999998</c:v>
+                        <c:v>16.08</c:v>
                       </c:pt>
                       <c:pt idx="232">
-                        <c:v>17.079999999999998</c:v>
+                        <c:v>17.08</c:v>
                       </c:pt>
                       <c:pt idx="233">
-                        <c:v>18.079999999999998</c:v>
+                        <c:v>18.08</c:v>
                       </c:pt>
                       <c:pt idx="234">
-                        <c:v>19.079999999999998</c:v>
+                        <c:v>19.08</c:v>
                       </c:pt>
                       <c:pt idx="235">
-                        <c:v>20.079999999999998</c:v>
+                        <c:v>20.08</c:v>
                       </c:pt>
                       <c:pt idx="236">
                         <c:v>21.08</c:v>
@@ -12356,23 +13365,41 @@
                         <c:v>31.08</c:v>
                       </c:pt>
                       <c:pt idx="247">
-                        <c:v>1.0900000000000001</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
+                        <c:v>1.09</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>2.09</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>3.09</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>4.09</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>5.09</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>6.09</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>7.09</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'kayseri-data-processed'!$I$2:$I$249</c15:sqref>
+                          <c15:sqref>'kayseri-data-processed'!$I$2:$I$255</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="248"/>
+                      <c:ptCount val="254"/>
                       <c:pt idx="0">
                         <c:v>10.5</c:v>
                       </c:pt>
@@ -13115,7 +14142,25 @@
                         <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="247">
-                        <c:v>8</c:v>
+                        <c:v>6.333333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>6.666666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>4.666666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>5.666666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>6</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13164,17 +14209,16 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
-                  <c:numRef>
+                  <c:strRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'kayseri-data-processed'!$A$2:$A$249</c15:sqref>
+                          <c15:sqref>'kayseri-data-processed'!$A$2:$A$255</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="248"/>
+                    <c:strCache>
+                      <c:ptCount val="254"/>
                       <c:pt idx="0">
                         <c:v>29.12</c:v>
                       </c:pt>
@@ -13188,7 +14232,7 @@
                         <c:v>1.01</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2.0099999999999998</c:v>
+                        <c:v>2.01</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>3.01</c:v>
@@ -13230,19 +14274,19 @@
                         <c:v>15.01</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>16.010000000000002</c:v>
+                        <c:v>16.01</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>17.010000000000002</c:v>
+                        <c:v>17.01</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>18.010000000000002</c:v>
+                        <c:v>18.01</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>19.010000000000002</c:v>
+                        <c:v>19.01</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>20.010000000000002</c:v>
+                        <c:v>20.01</c:v>
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>21.01</c:v>
@@ -13287,10 +14331,10 @@
                         <c:v>3.02</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>4.0199999999999996</c:v>
+                        <c:v>4.02</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>5.0199999999999996</c:v>
+                        <c:v>5.02</c:v>
                       </c:pt>
                       <c:pt idx="39">
                         <c:v>6.02</c:v>
@@ -13368,7 +14412,7 @@
                         <c:v>1.03</c:v>
                       </c:pt>
                       <c:pt idx="64">
-                        <c:v>2.0299999999999998</c:v>
+                        <c:v>2.03</c:v>
                       </c:pt>
                       <c:pt idx="65">
                         <c:v>3.03</c:v>
@@ -13386,13 +14430,13 @@
                         <c:v>7.03</c:v>
                       </c:pt>
                       <c:pt idx="70">
-                        <c:v>8.0299999999999994</c:v>
+                        <c:v>8.03</c:v>
                       </c:pt>
                       <c:pt idx="71">
-                        <c:v>9.0299999999999994</c:v>
+                        <c:v>9.03</c:v>
                       </c:pt>
                       <c:pt idx="72">
-                        <c:v>10.029999999999999</c:v>
+                        <c:v>10.03</c:v>
                       </c:pt>
                       <c:pt idx="73">
                         <c:v>11.03</c:v>
@@ -13479,13 +14523,13 @@
                         <c:v>7.04</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>8.0399999999999991</c:v>
+                        <c:v>8.04</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>9.0399999999999991</c:v>
+                        <c:v>9.04</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>10.039999999999999</c:v>
+                        <c:v>10.04</c:v>
                       </c:pt>
                       <c:pt idx="104">
                         <c:v>11.04</c:v>
@@ -13551,7 +14595,7 @@
                         <c:v>1.05</c:v>
                       </c:pt>
                       <c:pt idx="125">
-                        <c:v>2.0499999999999998</c:v>
+                        <c:v>2.05</c:v>
                       </c:pt>
                       <c:pt idx="126">
                         <c:v>3.05</c:v>
@@ -13569,13 +14613,13 @@
                         <c:v>7.05</c:v>
                       </c:pt>
                       <c:pt idx="131">
-                        <c:v>8.0500000000000007</c:v>
+                        <c:v>8.05</c:v>
                       </c:pt>
                       <c:pt idx="132">
-                        <c:v>9.0500000000000007</c:v>
+                        <c:v>9.05</c:v>
                       </c:pt>
                       <c:pt idx="133">
-                        <c:v>10.050000000000001</c:v>
+                        <c:v>10.05</c:v>
                       </c:pt>
                       <c:pt idx="134">
                         <c:v>11.05</c:v>
@@ -13650,10 +14694,10 @@
                         <c:v>3.06</c:v>
                       </c:pt>
                       <c:pt idx="158">
-                        <c:v>4.0599999999999996</c:v>
+                        <c:v>4.06</c:v>
                       </c:pt>
                       <c:pt idx="159">
-                        <c:v>5.0599999999999996</c:v>
+                        <c:v>5.06</c:v>
                       </c:pt>
                       <c:pt idx="160">
                         <c:v>6.06</c:v>
@@ -13686,19 +14730,19 @@
                         <c:v>15.06</c:v>
                       </c:pt>
                       <c:pt idx="170">
-                        <c:v>16.059999999999999</c:v>
+                        <c:v>16.06</c:v>
                       </c:pt>
                       <c:pt idx="171">
-                        <c:v>17.059999999999999</c:v>
+                        <c:v>17.06</c:v>
                       </c:pt>
                       <c:pt idx="172">
-                        <c:v>18.059999999999999</c:v>
+                        <c:v>18.06</c:v>
                       </c:pt>
                       <c:pt idx="173">
-                        <c:v>19.059999999999999</c:v>
+                        <c:v>19.06</c:v>
                       </c:pt>
                       <c:pt idx="174">
-                        <c:v>20.059999999999999</c:v>
+                        <c:v>20.06</c:v>
                       </c:pt>
                       <c:pt idx="175">
                         <c:v>21.06</c:v>
@@ -13734,7 +14778,7 @@
                         <c:v>1.07</c:v>
                       </c:pt>
                       <c:pt idx="186">
-                        <c:v>2.0699999999999998</c:v>
+                        <c:v>2.07</c:v>
                       </c:pt>
                       <c:pt idx="187">
                         <c:v>3.07</c:v>
@@ -13869,19 +14913,19 @@
                         <c:v>15.08</c:v>
                       </c:pt>
                       <c:pt idx="231">
-                        <c:v>16.079999999999998</c:v>
+                        <c:v>16.08</c:v>
                       </c:pt>
                       <c:pt idx="232">
-                        <c:v>17.079999999999998</c:v>
+                        <c:v>17.08</c:v>
                       </c:pt>
                       <c:pt idx="233">
-                        <c:v>18.079999999999998</c:v>
+                        <c:v>18.08</c:v>
                       </c:pt>
                       <c:pt idx="234">
-                        <c:v>19.079999999999998</c:v>
+                        <c:v>19.08</c:v>
                       </c:pt>
                       <c:pt idx="235">
-                        <c:v>20.079999999999998</c:v>
+                        <c:v>20.08</c:v>
                       </c:pt>
                       <c:pt idx="236">
                         <c:v>21.08</c:v>
@@ -13917,23 +14961,41 @@
                         <c:v>31.08</c:v>
                       </c:pt>
                       <c:pt idx="247">
-                        <c:v>1.0900000000000001</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
+                        <c:v>1.09</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>2.09</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>3.09</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>4.09</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>5.09</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>6.09</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>7.09</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'kayseri-data-processed'!$J$2:$J$249</c15:sqref>
+                          <c15:sqref>'kayseri-data-processed'!$J$2:$J$255</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="248"/>
+                      <c:ptCount val="254"/>
                       <c:pt idx="0">
                         <c:v>10</c:v>
                       </c:pt>
@@ -14676,7 +15738,25 @@
                         <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="247">
-                        <c:v>7.5</c:v>
+                        <c:v>6.666666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>5.333333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>3.6666666666666665</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>5.666666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>6.333333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>8</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -15480,17 +16560,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J249" totalsRowShown="0">
-  <autoFilter ref="A1:J249" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J255" totalsRowShown="0">
+  <autoFilter ref="A1:J255" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarih"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarih" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="VefatSayisi2020"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VefatSayisi2019"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="VefatSayisi2018"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2020MovingAvg7"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019MovingAvg7"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2018MovingAvg7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2020MovingAvg3" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2020MovingAvg3" dataDxfId="1">
       <calculatedColumnFormula>AVERAGE(B1:B3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2019MovingAvg3">
@@ -15801,10 +16881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M254"/>
+  <dimension ref="A1:M260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="J240" sqref="J240:J249"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="L254" sqref="L254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15845,8 +16925,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>29.12</v>
+      <c r="A2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -15871,8 +16951,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>30.12</v>
+      <c r="A3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -15897,8 +16977,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>31.12</v>
+      <c r="A4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -15923,8 +17003,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1.01</v>
+      <c r="A5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -15961,8 +17041,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2.0099999999999998</v>
+      <c r="A6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -15999,8 +17079,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>3.01</v>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -16037,8 +17117,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>4.01</v>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B8">
         <v>13</v>
@@ -16075,8 +17155,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>5.01</v>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -16113,8 +17193,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>6.01</v>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -16151,8 +17231,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>7.01</v>
+      <c r="A11" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -16189,8 +17269,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>8.01</v>
+      <c r="A12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -16227,8 +17307,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>9.01</v>
+      <c r="A13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -16265,8 +17345,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>10.01</v>
+      <c r="A14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -16303,8 +17383,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>11.01</v>
+      <c r="A15" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B15">
         <v>11</v>
@@ -16341,8 +17421,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>12.01</v>
+      <c r="A16" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -16379,8 +17459,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>13.01</v>
+      <c r="A17" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -16417,8 +17497,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>14.01</v>
+      <c r="A18" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -16455,8 +17535,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>15.01</v>
+      <c r="A19" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -16493,8 +17573,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>16.010000000000002</v>
+      <c r="A20" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -16531,8 +17611,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>17.010000000000002</v>
+      <c r="A21" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -16569,8 +17649,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>18.010000000000002</v>
+      <c r="A22" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -16607,8 +17687,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>19.010000000000002</v>
+      <c r="A23" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -16645,8 +17725,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>20.010000000000002</v>
+      <c r="A24" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -16683,8 +17763,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>21.01</v>
+      <c r="A25" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -16721,8 +17801,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>22.01</v>
+      <c r="A26" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -16759,8 +17839,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>23.01</v>
+      <c r="A27" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -16797,8 +17877,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>24.01</v>
+      <c r="A28" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -16835,8 +17915,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>25.01</v>
+      <c r="A29" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -16873,8 +17953,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>26.01</v>
+      <c r="A30" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -16911,8 +17991,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>27.01</v>
+      <c r="A31" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -16949,8 +18029,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>28.01</v>
+      <c r="A32" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -16987,8 +18067,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>29.01</v>
+      <c r="A33" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -17025,8 +18105,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>30.01</v>
+      <c r="A34" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B34">
         <v>14</v>
@@ -17063,8 +18143,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>31.01</v>
+      <c r="A35" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -17101,8 +18181,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>1.02</v>
+      <c r="A36" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -17139,8 +18219,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>2.02</v>
+      <c r="A37" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B37">
         <v>10</v>
@@ -17177,8 +18257,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>3.02</v>
+      <c r="A38" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -17215,8 +18295,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>4.0199999999999996</v>
+      <c r="A39" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B39">
         <v>12</v>
@@ -17253,8 +18333,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>5.0199999999999996</v>
+      <c r="A40" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B40">
         <v>13</v>
@@ -17291,8 +18371,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>6.02</v>
+      <c r="A41" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -17329,8 +18409,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>7.02</v>
+      <c r="A42" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -17367,8 +18447,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>8.02</v>
+      <c r="A43" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -17405,8 +18485,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>9.02</v>
+      <c r="A44" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -17443,8 +18523,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>10.02</v>
+      <c r="A45" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -17481,8 +18561,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>11.02</v>
+      <c r="A46" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B46">
         <v>10</v>
@@ -17519,8 +18599,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>12.02</v>
+      <c r="A47" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -17557,8 +18637,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>13.02</v>
+      <c r="A48" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -17595,8 +18675,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>14.02</v>
+      <c r="A49" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B49">
         <v>9</v>
@@ -17633,8 +18713,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>15.02</v>
+      <c r="A50" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B50">
         <v>12</v>
@@ -17671,8 +18751,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>16.02</v>
+      <c r="A51" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -17709,8 +18789,8 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>17.02</v>
+      <c r="A52" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -17747,8 +18827,8 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>18.02</v>
+      <c r="A53" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B53">
         <v>9</v>
@@ -17785,8 +18865,8 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>19.02</v>
+      <c r="A54" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B54">
         <v>9</v>
@@ -17823,8 +18903,8 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>20.02</v>
+      <c r="A55" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -17861,8 +18941,8 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>21.02</v>
+      <c r="A56" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B56">
         <v>12</v>
@@ -17899,8 +18979,8 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>22.02</v>
+      <c r="A57" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -17937,8 +19017,8 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>23.02</v>
+      <c r="A58" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B58">
         <v>13</v>
@@ -17975,8 +19055,8 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>24.02</v>
+      <c r="A59" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -18013,8 +19093,8 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>25.02</v>
+      <c r="A60" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -18051,8 +19131,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>26.02</v>
+      <c r="A61" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B61">
         <v>7</v>
@@ -18089,8 +19169,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>27.02</v>
+      <c r="A62" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -18127,8 +19207,8 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>28.02</v>
+      <c r="A63" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -18165,8 +19245,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>29.02</v>
+      <c r="A64" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B64">
         <v>9</v>
@@ -18203,8 +19283,8 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>1.03</v>
+      <c r="A65" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -18241,8 +19321,8 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>2.0299999999999998</v>
+      <c r="A66" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -18279,8 +19359,8 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>3.03</v>
+      <c r="A67" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -18317,8 +19397,8 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>4.03</v>
+      <c r="A68" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -18355,8 +19435,8 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>5.03</v>
+      <c r="A69" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -18393,8 +19473,8 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>6.03</v>
+      <c r="A70" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B70">
         <v>7</v>
@@ -18431,8 +19511,8 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>7.03</v>
+      <c r="A71" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B71">
         <v>9</v>
@@ -18469,8 +19549,8 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>8.0299999999999994</v>
+      <c r="A72" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -18507,8 +19587,8 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>9.0299999999999994</v>
+      <c r="A73" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B73">
         <v>10</v>
@@ -18545,8 +19625,8 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>10.029999999999999</v>
+      <c r="A74" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -18583,8 +19663,8 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>11.03</v>
+      <c r="A75" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -18621,8 +19701,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>12.03</v>
+      <c r="A76" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -18659,8 +19739,8 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>13.03</v>
+      <c r="A77" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B77">
         <v>11</v>
@@ -18697,8 +19777,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>14.03</v>
+      <c r="A78" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -18735,8 +19815,8 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>15.03</v>
+      <c r="A79" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -18773,8 +19853,8 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>16.03</v>
+      <c r="A80" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B80">
         <v>10</v>
@@ -18811,8 +19891,8 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>17.03</v>
+      <c r="A81" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -18849,8 +19929,8 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>18.03</v>
+      <c r="A82" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B82">
         <v>8</v>
@@ -18887,8 +19967,8 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>19.03</v>
+      <c r="A83" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -18925,8 +20005,8 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>20.03</v>
+      <c r="A84" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B84">
         <v>7</v>
@@ -18963,8 +20043,8 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>21.03</v>
+      <c r="A85" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -19001,8 +20081,8 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>22.03</v>
+      <c r="A86" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B86">
         <v>11</v>
@@ -19039,8 +20119,8 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>23.03</v>
+      <c r="A87" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B87">
         <v>11</v>
@@ -19077,8 +20157,8 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>24.03</v>
+      <c r="A88" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B88">
         <v>9</v>
@@ -19115,8 +20195,8 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>25.03</v>
+      <c r="A89" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B89">
         <v>9</v>
@@ -19153,8 +20233,8 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>26.03</v>
+      <c r="A90" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B90">
         <v>9</v>
@@ -19191,8 +20271,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>27.03</v>
+      <c r="A91" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B91">
         <v>10</v>
@@ -19229,8 +20309,8 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>28.03</v>
+      <c r="A92" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B92">
         <v>10</v>
@@ -19267,8 +20347,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <v>29.03</v>
+      <c r="A93" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B93">
         <v>7</v>
@@ -19305,8 +20385,8 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <v>30.03</v>
+      <c r="A94" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -19343,8 +20423,8 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>31.03</v>
+      <c r="A95" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B95">
         <v>13</v>
@@ -19381,8 +20461,8 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>1.04</v>
+      <c r="A96" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B96">
         <v>14</v>
@@ -19419,8 +20499,8 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>2.04</v>
+      <c r="A97" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B97">
         <v>6</v>
@@ -19457,8 +20537,8 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <v>3.04</v>
+      <c r="A98" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B98">
         <v>12</v>
@@ -19495,8 +20575,8 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>4.04</v>
+      <c r="A99" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B99">
         <v>13</v>
@@ -19533,8 +20613,8 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <v>5.04</v>
+      <c r="A100" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B100">
         <v>11</v>
@@ -19571,8 +20651,8 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>6.04</v>
+      <c r="A101" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B101">
         <v>13</v>
@@ -19609,8 +20689,8 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A102">
-        <v>7.04</v>
+      <c r="A102" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B102">
         <v>7</v>
@@ -19647,8 +20727,8 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>8.0399999999999991</v>
+      <c r="A103" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B103">
         <v>4</v>
@@ -19685,8 +20765,8 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>9.0399999999999991</v>
+      <c r="A104" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B104">
         <v>7</v>
@@ -19723,8 +20803,8 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>10.039999999999999</v>
+      <c r="A105" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B105">
         <v>13</v>
@@ -19761,8 +20841,8 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>11.04</v>
+      <c r="A106" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B106">
         <v>6</v>
@@ -19799,8 +20879,8 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>12.04</v>
+      <c r="A107" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B107">
         <v>7</v>
@@ -19837,8 +20917,8 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>13.04</v>
+      <c r="A108" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B108">
         <v>11</v>
@@ -19875,8 +20955,8 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>14.04</v>
+      <c r="A109" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B109">
         <v>8</v>
@@ -19913,8 +20993,8 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>15.04</v>
+      <c r="A110" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B110">
         <v>11</v>
@@ -19951,8 +21031,8 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>16.04</v>
+      <c r="A111" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B111">
         <v>7</v>
@@ -19989,8 +21069,8 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>17.04</v>
+      <c r="A112" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B112">
         <v>10</v>
@@ -20027,8 +21107,8 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A113">
-        <v>18.04</v>
+      <c r="A113" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B113">
         <v>7</v>
@@ -20065,8 +21145,8 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A114">
-        <v>19.04</v>
+      <c r="A114" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -20103,8 +21183,8 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A115">
-        <v>20.04</v>
+      <c r="A115" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B115">
         <v>13</v>
@@ -20141,8 +21221,8 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A116">
-        <v>21.04</v>
+      <c r="A116" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B116">
         <v>10</v>
@@ -20179,8 +21259,8 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A117">
-        <v>22.04</v>
+      <c r="A117" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B117">
         <v>7</v>
@@ -20217,8 +21297,8 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A118">
-        <v>23.04</v>
+      <c r="A118" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B118">
         <v>11</v>
@@ -20255,8 +21335,8 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A119">
-        <v>24.04</v>
+      <c r="A119" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B119">
         <v>6</v>
@@ -20293,8 +21373,8 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A120">
-        <v>25.04</v>
+      <c r="A120" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -20331,8 +21411,8 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A121">
-        <v>26.04</v>
+      <c r="A121" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -20369,8 +21449,8 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A122">
-        <v>27.04</v>
+      <c r="A122" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="B122">
         <v>6</v>
@@ -20407,8 +21487,8 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A123">
-        <v>28.04</v>
+      <c r="A123" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B123">
         <v>3</v>
@@ -20445,8 +21525,8 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A124">
-        <v>29.04</v>
+      <c r="A124" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -20483,8 +21563,8 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A125">
-        <v>30.04</v>
+      <c r="A125" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -20521,8 +21601,8 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A126">
-        <v>1.05</v>
+      <c r="A126" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B126">
         <v>3</v>
@@ -20559,8 +21639,8 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A127">
-        <v>2.0499999999999998</v>
+      <c r="A127" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -20597,8 +21677,8 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A128">
-        <v>3.05</v>
+      <c r="A128" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B128">
         <v>7</v>
@@ -20635,8 +21715,8 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A129">
-        <v>4.05</v>
+      <c r="A129" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B129">
         <v>9</v>
@@ -20673,8 +21753,8 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A130">
-        <v>5.05</v>
+      <c r="A130" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B130">
         <v>10</v>
@@ -20711,8 +21791,8 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A131">
-        <v>6.05</v>
+      <c r="A131" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="B131">
         <v>11</v>
@@ -20749,8 +21829,8 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A132">
-        <v>7.05</v>
+      <c r="A132" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B132">
         <v>6</v>
@@ -20787,8 +21867,8 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A133">
-        <v>8.0500000000000007</v>
+      <c r="A133" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="B133">
         <v>13</v>
@@ -20825,8 +21905,8 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A134">
-        <v>9.0500000000000007</v>
+      <c r="A134" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -20863,8 +21943,8 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A135">
-        <v>10.050000000000001</v>
+      <c r="A135" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B135">
         <v>8</v>
@@ -20901,8 +21981,8 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A136">
-        <v>11.05</v>
+      <c r="A136" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B136">
         <v>8</v>
@@ -20939,8 +22019,8 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A137">
-        <v>12.05</v>
+      <c r="A137" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B137">
         <v>6</v>
@@ -20977,8 +22057,8 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A138">
-        <v>13.05</v>
+      <c r="A138" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B138">
         <v>6</v>
@@ -21015,8 +22095,8 @@
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A139">
-        <v>14.05</v>
+      <c r="A139" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="B139">
         <v>9</v>
@@ -21053,8 +22133,8 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A140">
-        <v>15.05</v>
+      <c r="A140" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B140">
         <v>11</v>
@@ -21091,8 +22171,8 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A141">
-        <v>16.05</v>
+      <c r="A141" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B141">
         <v>3</v>
@@ -21129,8 +22209,8 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A142">
-        <v>17.05</v>
+      <c r="A142" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B142">
         <v>12</v>
@@ -21167,8 +22247,8 @@
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A143">
-        <v>18.05</v>
+      <c r="A143" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -21205,8 +22285,8 @@
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A144">
-        <v>19.05</v>
+      <c r="A144" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B144">
         <v>6</v>
@@ -21243,8 +22323,8 @@
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A145">
-        <v>20.05</v>
+      <c r="A145" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="B145">
         <v>4</v>
@@ -21281,8 +22361,8 @@
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A146">
-        <v>21.05</v>
+      <c r="A146" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B146">
         <v>10</v>
@@ -21319,8 +22399,8 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A147">
-        <v>22.05</v>
+      <c r="A147" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="B147">
         <v>11</v>
@@ -21357,8 +22437,8 @@
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A148">
-        <v>23.05</v>
+      <c r="A148" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B148">
         <v>6</v>
@@ -21395,8 +22475,8 @@
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A149">
-        <v>24.05</v>
+      <c r="A149" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B149">
         <v>8</v>
@@ -21433,8 +22513,8 @@
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A150">
-        <v>25.05</v>
+      <c r="A150" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B150">
         <v>8</v>
@@ -21471,8 +22551,8 @@
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A151">
-        <v>26.05</v>
+      <c r="A151" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B151">
         <v>6</v>
@@ -21509,8 +22589,8 @@
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A152">
-        <v>27.05</v>
+      <c r="A152" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B152">
         <v>9</v>
@@ -21547,8 +22627,8 @@
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A153">
-        <v>28.05</v>
+      <c r="A153" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B153">
         <v>7</v>
@@ -21585,8 +22665,8 @@
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A154">
-        <v>29.05</v>
+      <c r="A154" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B154">
         <v>6</v>
@@ -21623,8 +22703,8 @@
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A155">
-        <v>30.05</v>
+      <c r="A155" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B155">
         <v>2</v>
@@ -21661,8 +22741,8 @@
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A156">
-        <v>31.05</v>
+      <c r="A156" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="B156">
         <v>8</v>
@@ -21699,8 +22779,8 @@
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A157">
-        <v>1.06</v>
+      <c r="A157" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B157">
         <v>8</v>
@@ -21737,8 +22817,8 @@
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A158">
-        <v>2.06</v>
+      <c r="A158" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B158">
         <v>10</v>
@@ -21775,8 +22855,8 @@
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A159">
-        <v>3.06</v>
+      <c r="A159" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B159">
         <v>4</v>
@@ -21813,8 +22893,8 @@
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A160">
-        <v>4.0599999999999996</v>
+      <c r="A160" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B160">
         <v>6</v>
@@ -21851,8 +22931,8 @@
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A161">
-        <v>5.0599999999999996</v>
+      <c r="A161" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B161">
         <v>6</v>
@@ -21889,8 +22969,8 @@
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A162">
-        <v>6.06</v>
+      <c r="A162" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B162">
         <v>7</v>
@@ -21927,8 +23007,8 @@
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A163">
-        <v>7.06</v>
+      <c r="A163" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -21965,8 +23045,8 @@
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A164">
-        <v>8.06</v>
+      <c r="A164" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B164">
         <v>9</v>
@@ -22003,8 +23083,8 @@
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A165">
-        <v>9.06</v>
+      <c r="A165" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B165">
         <v>8</v>
@@ -22041,8 +23121,8 @@
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A166">
-        <v>10.06</v>
+      <c r="A166" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B166">
         <v>6</v>
@@ -22079,8 +23159,8 @@
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A167">
-        <v>11.06</v>
+      <c r="A167" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -22117,8 +23197,8 @@
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A168">
-        <v>12.06</v>
+      <c r="A168" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="B168">
         <v>6</v>
@@ -22155,8 +23235,8 @@
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A169">
-        <v>13.06</v>
+      <c r="A169" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="B169">
         <v>2</v>
@@ -22193,8 +23273,8 @@
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A170">
-        <v>14.06</v>
+      <c r="A170" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B170">
         <v>10</v>
@@ -22231,8 +23311,8 @@
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A171">
-        <v>15.06</v>
+      <c r="A171" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="B171">
         <v>5</v>
@@ -22269,8 +23349,8 @@
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A172">
-        <v>16.059999999999999</v>
+      <c r="A172" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B172">
         <v>8</v>
@@ -22307,8 +23387,8 @@
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A173">
-        <v>17.059999999999999</v>
+      <c r="A173" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B173">
         <v>9</v>
@@ -22345,8 +23425,8 @@
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A174">
-        <v>18.059999999999999</v>
+      <c r="A174" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B174">
         <v>9</v>
@@ -22383,8 +23463,8 @@
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A175">
-        <v>19.059999999999999</v>
+      <c r="A175" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B175">
         <v>10</v>
@@ -22421,8 +23501,8 @@
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A176">
-        <v>20.059999999999999</v>
+      <c r="A176" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B176">
         <v>7</v>
@@ -22459,8 +23539,8 @@
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A177">
-        <v>21.06</v>
+      <c r="A177" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="B177">
         <v>8</v>
@@ -22497,8 +23577,8 @@
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A178">
-        <v>22.06</v>
+      <c r="A178" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B178">
         <v>7</v>
@@ -22535,8 +23615,8 @@
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A179">
-        <v>23.06</v>
+      <c r="A179" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B179">
         <v>6</v>
@@ -22573,8 +23653,8 @@
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A180">
-        <v>24.06</v>
+      <c r="A180" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="B180">
         <v>7</v>
@@ -22611,8 +23691,8 @@
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A181">
-        <v>25.06</v>
+      <c r="A181" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B181">
         <v>7</v>
@@ -22649,8 +23729,8 @@
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A182">
-        <v>26.06</v>
+      <c r="A182" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B182">
         <v>5</v>
@@ -22687,8 +23767,8 @@
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A183">
-        <v>27.06</v>
+      <c r="A183" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B183">
         <v>7</v>
@@ -22725,8 +23805,8 @@
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A184">
-        <v>28.06</v>
+      <c r="A184" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B184">
         <v>8</v>
@@ -22763,8 +23843,8 @@
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A185">
-        <v>29.06</v>
+      <c r="A185" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B185">
         <v>12</v>
@@ -22801,8 +23881,8 @@
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A186">
-        <v>30.06</v>
+      <c r="A186" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="B186">
         <v>4</v>
@@ -22839,8 +23919,8 @@
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A187">
-        <v>1.07</v>
+      <c r="A187" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B187">
         <v>3</v>
@@ -22877,8 +23957,8 @@
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A188">
-        <v>2.0699999999999998</v>
+      <c r="A188" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B188">
         <v>11</v>
@@ -22915,8 +23995,8 @@
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A189">
-        <v>3.07</v>
+      <c r="A189" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B189">
         <v>13</v>
@@ -22953,8 +24033,8 @@
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A190">
-        <v>4.07</v>
+      <c r="A190" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B190">
         <v>4</v>
@@ -22991,8 +24071,8 @@
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A191">
-        <v>5.07</v>
+      <c r="A191" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="B191">
         <v>7</v>
@@ -23029,8 +24109,8 @@
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A192">
-        <v>6.07</v>
+      <c r="A192" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B192">
         <v>6</v>
@@ -23067,8 +24147,8 @@
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A193">
-        <v>7.07</v>
+      <c r="A193" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="B193">
         <v>14</v>
@@ -23105,8 +24185,8 @@
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A194">
-        <v>8.07</v>
+      <c r="A194" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="B194">
         <v>12</v>
@@ -23143,8 +24223,8 @@
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A195">
-        <v>9.07</v>
+      <c r="A195" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="B195">
         <v>9</v>
@@ -23181,8 +24261,8 @@
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A196">
-        <v>10.07</v>
+      <c r="A196" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="B196">
         <v>10</v>
@@ -23219,8 +24299,8 @@
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A197">
-        <v>11.07</v>
+      <c r="A197" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="B197">
         <v>10</v>
@@ -23257,8 +24337,8 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A198">
-        <v>12.07</v>
+      <c r="A198" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B198">
         <v>5</v>
@@ -23270,7 +24350,7 @@
         <v>7</v>
       </c>
       <c r="E198">
-        <f t="shared" ref="E198:E242" si="13">AVERAGE(B195:B201)</f>
+        <f t="shared" ref="E198:E239" si="13">AVERAGE(B195:B201)</f>
         <v>7</v>
       </c>
       <c r="F198">
@@ -23295,8 +24375,8 @@
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A199">
-        <v>13.07</v>
+      <c r="A199" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="B199">
         <v>4</v>
@@ -23333,8 +24413,8 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A200">
-        <v>14.07</v>
+      <c r="A200" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B200">
         <v>8</v>
@@ -23371,8 +24451,8 @@
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A201">
-        <v>15.07</v>
+      <c r="A201" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="B201">
         <v>3</v>
@@ -23409,8 +24489,8 @@
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A202">
-        <v>16.07</v>
+      <c r="A202" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B202">
         <v>7</v>
@@ -23447,8 +24527,8 @@
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A203">
-        <v>17.07</v>
+      <c r="A203" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="B203">
         <v>10</v>
@@ -23485,8 +24565,8 @@
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A204">
-        <v>18.07</v>
+      <c r="A204" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="B204">
         <v>7</v>
@@ -23523,8 +24603,8 @@
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A205">
-        <v>19.07</v>
+      <c r="A205" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="B205">
         <v>9</v>
@@ -23561,8 +24641,8 @@
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A206">
-        <v>20.07</v>
+      <c r="A206" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="B206">
         <v>7</v>
@@ -23599,8 +24679,8 @@
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A207">
-        <v>21.07</v>
+      <c r="A207" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="B207">
         <v>9</v>
@@ -23637,8 +24717,8 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A208">
-        <v>22.07</v>
+      <c r="A208" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="B208">
         <v>7</v>
@@ -23675,8 +24755,8 @@
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A209">
-        <v>23.07</v>
+      <c r="A209" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="B209">
         <v>8</v>
@@ -23713,8 +24793,8 @@
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A210">
-        <v>24.07</v>
+      <c r="A210" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="B210">
         <v>7</v>
@@ -23751,8 +24831,8 @@
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A211">
-        <v>25.07</v>
+      <c r="A211" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="B211">
         <v>10</v>
@@ -23789,8 +24869,8 @@
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A212">
-        <v>26.07</v>
+      <c r="A212" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="B212">
         <v>5</v>
@@ -23827,8 +24907,8 @@
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A213">
-        <v>27.07</v>
+      <c r="A213" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="B213">
         <v>4</v>
@@ -23865,8 +24945,8 @@
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A214">
-        <v>28.07</v>
+      <c r="A214" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="B214">
         <v>9</v>
@@ -23903,8 +24983,8 @@
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A215">
-        <v>29.07</v>
+      <c r="A215" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="B215">
         <v>9</v>
@@ -23941,8 +25021,8 @@
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A216">
-        <v>30.07</v>
+      <c r="A216" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="B216">
         <v>8</v>
@@ -23979,8 +25059,8 @@
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A217">
-        <v>31.07</v>
+      <c r="A217" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="B217">
         <v>6</v>
@@ -24017,8 +25097,8 @@
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A218">
-        <v>1.08</v>
+      <c r="A218" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="B218">
         <v>12</v>
@@ -24055,8 +25135,8 @@
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A219">
-        <v>2.08</v>
+      <c r="A219" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="B219">
         <v>8</v>
@@ -24093,8 +25173,8 @@
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A220">
-        <v>3.08</v>
+      <c r="A220" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="B220">
         <v>14</v>
@@ -24131,8 +25211,8 @@
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A221">
-        <v>4.08</v>
+      <c r="A221" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="B221">
         <v>7</v>
@@ -24169,8 +25249,8 @@
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A222">
-        <v>5.08</v>
+      <c r="A222" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="B222">
         <v>15</v>
@@ -24207,8 +25287,8 @@
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A223">
-        <v>6.08</v>
+      <c r="A223" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="B223">
         <v>8</v>
@@ -24245,8 +25325,8 @@
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A224">
-        <v>7.08</v>
+      <c r="A224" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="B224">
         <v>6</v>
@@ -24283,8 +25363,8 @@
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A225">
-        <v>8.08</v>
+      <c r="A225" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="B225">
         <v>9</v>
@@ -24321,8 +25401,8 @@
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A226">
-        <v>9.08</v>
+      <c r="A226" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="B226">
         <v>13</v>
@@ -24359,8 +25439,8 @@
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A227">
-        <v>10.08</v>
+      <c r="A227" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="B227">
         <v>4</v>
@@ -24397,8 +25477,8 @@
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A228">
-        <v>11.08</v>
+      <c r="A228" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="B228">
         <v>5</v>
@@ -24435,8 +25515,8 @@
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A229">
-        <v>12.08</v>
+      <c r="A229" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="B229">
         <v>9</v>
@@ -24473,8 +25553,8 @@
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A230">
-        <v>13.08</v>
+      <c r="A230" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="B230">
         <v>10</v>
@@ -24511,8 +25591,8 @@
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A231">
-        <v>14.08</v>
+      <c r="A231" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="B231">
         <v>8</v>
@@ -24549,8 +25629,8 @@
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A232">
-        <v>15.08</v>
+      <c r="A232" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="B232">
         <v>10</v>
@@ -24587,8 +25667,8 @@
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A233">
-        <v>16.079999999999998</v>
+      <c r="A233" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="B233">
         <v>4</v>
@@ -24625,8 +25705,8 @@
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A234">
-        <v>17.079999999999998</v>
+      <c r="A234" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="B234">
         <v>8</v>
@@ -24663,8 +25743,8 @@
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A235">
-        <v>18.079999999999998</v>
+      <c r="A235" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="B235">
         <v>10</v>
@@ -24701,8 +25781,8 @@
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A236">
-        <v>19.079999999999998</v>
+      <c r="A236" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="B236">
         <v>10</v>
@@ -24739,8 +25819,8 @@
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A237">
-        <v>20.079999999999998</v>
+      <c r="A237" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="B237">
         <v>8</v>
@@ -24777,8 +25857,8 @@
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A238">
-        <v>21.08</v>
+      <c r="A238" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="B238">
         <v>15</v>
@@ -24815,8 +25895,8 @@
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A239">
-        <v>22.08</v>
+      <c r="A239" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="B239">
         <v>11</v>
@@ -24853,8 +25933,8 @@
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A240">
-        <v>23.08</v>
+      <c r="A240" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="B240">
         <v>8</v>
@@ -24890,9 +25970,9 @@
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A241">
-        <v>24.08</v>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A241" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="B241">
         <v>7</v>
@@ -24904,7 +25984,7 @@
         <v>7</v>
       </c>
       <c r="E241">
-        <f t="shared" ref="E241:G249" si="15">AVERAGE(B238:B244)</f>
+        <f t="shared" ref="E241:G245" si="15">AVERAGE(B238:B244)</f>
         <v>12</v>
       </c>
       <c r="F241">
@@ -24928,9 +26008,9 @@
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A242">
-        <v>25.08</v>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="B242">
         <v>15</v>
@@ -24966,9 +26046,9 @@
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A243">
-        <v>26.08</v>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="B243">
         <v>9</v>
@@ -25004,9 +26084,9 @@
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A244">
-        <v>27.08</v>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="B244">
         <v>19</v>
@@ -25018,7 +26098,7 @@
         <v>7</v>
       </c>
       <c r="E244">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(B241:B247)</f>
         <v>12.714285714285714</v>
       </c>
       <c r="F244">
@@ -25042,9 +26122,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A245">
-        <v>28.08</v>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A245" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="B245">
         <v>12</v>
@@ -25068,7 +26148,7 @@
         <v>7.4285714285714288</v>
       </c>
       <c r="H245">
-        <f t="shared" ref="H245:J249" si="16">AVERAGE(B244:B246)</f>
+        <f t="shared" ref="H245:J247" si="16">AVERAGE(B244:B246)</f>
         <v>14.666666666666666</v>
       </c>
       <c r="I245">
@@ -25080,9 +26160,9 @@
         <v>7.333333333333333</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A246">
-        <v>29.08</v>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A246" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="B246">
         <v>13</v>
@@ -25094,15 +26174,15 @@
         <v>9</v>
       </c>
       <c r="E246">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="E246:G255" si="17">AVERAGE(B243:B249)</f>
         <v>14.571428571428571</v>
       </c>
       <c r="F246">
-        <f t="shared" si="15"/>
+        <f>AVERAGE(C243:C249)</f>
         <v>6.2857142857142856</v>
       </c>
       <c r="G246">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.2857142857142856</v>
       </c>
       <c r="H246">
@@ -25118,9 +26198,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A247">
-        <v>30.08</v>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A247" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="B247">
         <v>14</v>
@@ -25132,16 +26212,16 @@
         <v>9</v>
       </c>
       <c r="E247">
-        <f t="shared" si="15"/>
-        <v>15.5</v>
+        <f t="shared" si="17"/>
+        <v>15.857142857142858</v>
       </c>
       <c r="F247">
-        <f t="shared" si="15"/>
-        <v>6.5</v>
+        <f t="shared" ref="F247:F255" si="18">AVERAGE(C244:C250)</f>
+        <v>6</v>
       </c>
       <c r="G247">
-        <f t="shared" si="15"/>
-        <v>7.666666666666667</v>
+        <f t="shared" si="17"/>
+        <v>7.2857142857142856</v>
       </c>
       <c r="H247">
         <f t="shared" si="16"/>
@@ -25156,9 +26236,9 @@
         <v>9.6666666666666661</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A248">
-        <v>31.08</v>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="B248">
         <v>12</v>
@@ -25170,33 +26250,33 @@
         <v>11</v>
       </c>
       <c r="E248">
-        <f t="shared" si="15"/>
-        <v>14.8</v>
+        <f t="shared" si="17"/>
+        <v>15.714285714285714</v>
       </c>
       <c r="F248">
-        <f t="shared" si="15"/>
-        <v>7.4</v>
+        <f t="shared" si="18"/>
+        <v>6.4285714285714288</v>
       </c>
       <c r="G248">
-        <f t="shared" si="15"/>
-        <v>7.8</v>
+        <f t="shared" si="17"/>
+        <v>6.7142857142857144</v>
       </c>
       <c r="H248">
-        <f t="shared" si="16"/>
+        <f>AVERAGE(B247:B249)</f>
         <v>16.333333333333332</v>
       </c>
       <c r="I248">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="H248:J249" si="19">AVERAGE(C247:C249)</f>
         <v>7</v>
       </c>
       <c r="J248">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A249">
-        <v>1.0900000000000001</v>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A249" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="B249">
         <v>23</v>
@@ -25208,85 +26288,316 @@
         <v>4</v>
       </c>
       <c r="E249">
-        <f t="shared" si="15"/>
-        <v>15.5</v>
+        <f t="shared" si="17"/>
+        <v>16</v>
       </c>
       <c r="F249">
-        <f t="shared" si="15"/>
-        <v>7.5</v>
+        <f t="shared" si="18"/>
+        <v>6.1428571428571432</v>
       </c>
       <c r="G249">
-        <f t="shared" si="15"/>
-        <v>8.25</v>
+        <f t="shared" si="17"/>
+        <v>6.5714285714285712</v>
       </c>
       <c r="H249">
-        <f t="shared" si="16"/>
-        <v>17.5</v>
+        <f t="shared" si="19"/>
+        <v>17.666666666666668</v>
       </c>
       <c r="I249">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="J249">
+        <f t="shared" si="19"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A250" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B250">
+        <v>18</v>
+      </c>
+      <c r="C250">
+        <v>3</v>
+      </c>
+      <c r="D250">
+        <v>5</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="17"/>
+        <v>16.285714285714285</v>
+      </c>
+      <c r="F250">
+        <f t="shared" si="18"/>
+        <v>5.5714285714285712</v>
+      </c>
+      <c r="G250">
+        <f t="shared" si="17"/>
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="H250" s="1">
+        <f t="shared" ref="H250" si="20">AVERAGE(B249:B251)</f>
+        <v>19.666666666666668</v>
+      </c>
+      <c r="I250">
+        <f t="shared" ref="I250" si="21">AVERAGE(C249:C251)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J250">
+        <f t="shared" ref="J250" si="22">AVERAGE(D249:D251)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A251" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B251">
+        <v>18</v>
+      </c>
+      <c r="C251">
+        <v>5</v>
+      </c>
+      <c r="D251">
+        <v>3</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="17"/>
+        <v>17.428571428571427</v>
+      </c>
+      <c r="F251">
+        <f t="shared" si="18"/>
+        <v>5.4285714285714288</v>
+      </c>
+      <c r="G251">
+        <f t="shared" si="17"/>
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="H251" s="1">
+        <f>AVERAGE(B250:B258)</f>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="I251">
+        <f>AVERAGE(C250:C258)</f>
+        <v>5</v>
+      </c>
+      <c r="J251">
+        <f>AVERAGE(D250:D258)</f>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B252">
+        <v>14</v>
+      </c>
+      <c r="C252">
+        <v>5</v>
+      </c>
+      <c r="D252">
+        <v>5</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="17"/>
+        <v>19.285714285714285</v>
+      </c>
+      <c r="F252">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="G252">
+        <f t="shared" si="17"/>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="H252" s="1">
+        <f>AVERAGE(B251:B253)</f>
+        <v>15.666666666666666</v>
+      </c>
+      <c r="I252">
+        <f>AVERAGE(C251:C253)</f>
+        <v>5</v>
+      </c>
+      <c r="J252">
+        <f>AVERAGE(D251:D253)</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B253">
+        <v>15</v>
+      </c>
+      <c r="C253">
+        <v>5</v>
+      </c>
+      <c r="D253">
+        <v>3</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="17"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="F253">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="G253">
+        <f>AVERAGE(D250:D256)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="H253" s="1">
+        <f>AVERAGE(B252:B254)</f>
+        <v>17</v>
+      </c>
+      <c r="I253">
+        <f>AVERAGE(C252:C254)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="J253">
+        <f>AVERAGE(D252:D254)</f>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A254" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B254">
+        <v>22</v>
+      </c>
+      <c r="C254">
+        <v>4</v>
+      </c>
+      <c r="D254">
+        <v>9</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="17"/>
+        <v>18.8</v>
+      </c>
+      <c r="F254">
+        <f>AVERAGE(C251:C257)</f>
+        <v>5.4</v>
+      </c>
+      <c r="G254">
+        <f t="shared" si="17"/>
+        <v>5.4</v>
+      </c>
+      <c r="H254" s="1">
+        <f>AVERAGE(B253:B255)</f>
+        <v>20.666666666666668</v>
+      </c>
+      <c r="I254">
+        <f>AVERAGE(C253:C255)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="J254">
+        <f>AVERAGE(D253:D255)</f>
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A255" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B255">
+        <v>25</v>
+      </c>
+      <c r="C255">
         <v>8</v>
       </c>
-      <c r="J249">
-        <f t="shared" si="16"/>
-        <v>7.5</v>
+      <c r="D255">
+        <v>7</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="17"/>
+        <v>19</v>
+      </c>
+      <c r="F255">
+        <f t="shared" si="18"/>
+        <v>5.5</v>
+      </c>
+      <c r="G255">
+        <f>AVERAGE(D252:D258)</f>
+        <v>6</v>
+      </c>
+      <c r="H255" s="1">
+        <f>AVERAGE(B254:B256)</f>
+        <v>23.5</v>
+      </c>
+      <c r="I255">
+        <f>AVERAGE(C254:C256)</f>
+        <v>6</v>
+      </c>
+      <c r="J255">
+        <f>AVERAGE(D254:D256)</f>
+        <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="H250" s="1"/>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H256" s="1"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E253" s="2" t="s">
+    <row r="257" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="H257" s="1"/>
+    </row>
+    <row r="259" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E259" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F253" s="2"/>
-      <c r="G253" s="2" t="s">
+      <c r="F259" s="2"/>
+      <c r="G259" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H253" s="2"/>
-      <c r="I253" s="2" t="s">
+      <c r="H259" s="2"/>
+      <c r="I259" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J253" s="2"/>
-      <c r="K253" s="2" t="s">
+      <c r="J259" s="2"/>
+      <c r="K259" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L253" s="2"/>
-      <c r="M253" s="2"/>
+      <c r="L259" s="2"/>
+      <c r="M259" s="2"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E254" s="3">
+    <row r="260" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E260" s="3">
         <f>SUM(Table1[VefatSayisi2020])</f>
-        <v>1996</v>
-      </c>
-      <c r="F254" s="3"/>
-      <c r="G254" s="3">
+        <v>2108</v>
+      </c>
+      <c r="F260" s="3"/>
+      <c r="G260" s="3">
         <f>SUM(Table1[VefatSayisi2019])</f>
-        <v>1812</v>
-      </c>
-      <c r="H254" s="3"/>
-      <c r="I254" s="3">
+        <v>1842</v>
+      </c>
+      <c r="H260" s="3"/>
+      <c r="I260" s="3">
         <f>SUM(Table1[VefatSayisi2018])</f>
-        <v>1756</v>
-      </c>
-      <c r="J254" s="3"/>
-      <c r="K254" s="3">
-        <f>E254-AVERAGE(G254,I254)</f>
-        <v>212</v>
-      </c>
-      <c r="L254" s="3"/>
-      <c r="M254" s="3"/>
+        <v>1788</v>
+      </c>
+      <c r="J260" s="3"/>
+      <c r="K260" s="3">
+        <f>E260-AVERAGE(G260,I260)</f>
+        <v>293</v>
+      </c>
+      <c r="L260" s="3"/>
+      <c r="M260" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="K253:M253"/>
-    <mergeCell ref="K254:M254"/>
-    <mergeCell ref="E253:F253"/>
-    <mergeCell ref="G253:H253"/>
-    <mergeCell ref="I253:J253"/>
-    <mergeCell ref="E254:F254"/>
-    <mergeCell ref="G254:H254"/>
-    <mergeCell ref="I254:J254"/>
+    <mergeCell ref="K259:M259"/>
+    <mergeCell ref="K260:M260"/>
+    <mergeCell ref="E259:F259"/>
+    <mergeCell ref="G259:H259"/>
+    <mergeCell ref="I259:J259"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="G260:H260"/>
+    <mergeCell ref="I260:J260"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
